--- a/new_data/double_hit/20260127_213202_phrase53/20260127_213202_phrase53_keypoints.xlsx
+++ b/new_data/double_hit/20260127_213202_phrase53/20260127_213202_phrase53_keypoints.xlsx
@@ -491,1168 +491,1168 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.479008155564651</v>
+        <v>4.520987825561448</v>
       </c>
       <c r="B2" t="n">
-        <v>9.429111805437708</v>
+        <v>4.497204876631309</v>
       </c>
       <c r="C2" t="n">
-        <v>9.473197773274638</v>
+        <v>4.518235630844069</v>
       </c>
       <c r="D2" t="n">
-        <v>9.113196309199385</v>
+        <v>4.346478176295672</v>
       </c>
       <c r="E2" t="n">
-        <v>9.225995321614077</v>
+        <v>4.400341016953564</v>
       </c>
       <c r="F2" t="n">
-        <v>8.856310996203387</v>
+        <v>4.223925684711989</v>
       </c>
       <c r="G2" t="n">
-        <v>9.058877120829465</v>
+        <v>4.320538796629759</v>
       </c>
       <c r="H2" t="n">
-        <v>9.053824730227497</v>
+        <v>4.318166214976847</v>
       </c>
       <c r="I2" t="n">
-        <v>9.179527569535257</v>
+        <v>4.378133970084523</v>
       </c>
       <c r="J2" t="n">
-        <v>9.336242184666474</v>
+        <v>4.452786021859809</v>
       </c>
       <c r="K2" t="n">
-        <v>9.637142923691732</v>
+        <v>4.59638418556096</v>
       </c>
       <c r="L2" t="n">
-        <v>8.679178520685054</v>
+        <v>4.139455112421489</v>
       </c>
       <c r="M2" t="n">
-        <v>9.022563396122196</v>
+        <v>4.30324608845397</v>
       </c>
       <c r="N2" t="n">
-        <v>8.354612336164989</v>
+        <v>3.984589487035151</v>
       </c>
       <c r="O2" t="n">
-        <v>9.812975034189485</v>
+        <v>4.680278672807977</v>
       </c>
       <c r="P2" t="n">
-        <v>7.661972309013047</v>
+        <v>3.654182972544866</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.851303193347775</v>
+        <v>4.698526126885032</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9.676222419650552</v>
+        <v>4.615033153456201</v>
       </c>
       <c r="B3" t="n">
-        <v>9.618311588488375</v>
+        <v>4.587437568965552</v>
       </c>
       <c r="C3" t="n">
-        <v>9.670149169303667</v>
+        <v>4.612142571367494</v>
       </c>
       <c r="D3" t="n">
-        <v>9.250396797668127</v>
+        <v>4.411972221591826</v>
       </c>
       <c r="E3" t="n">
-        <v>9.426039909360432</v>
+        <v>4.495758474679158</v>
       </c>
       <c r="F3" t="n">
-        <v>9.051445607940611</v>
+        <v>4.317119105027286</v>
       </c>
       <c r="G3" t="n">
-        <v>9.199479587796267</v>
+        <v>4.387705234264269</v>
       </c>
       <c r="H3" t="n">
-        <v>9.058134435382707</v>
+        <v>4.320354703337627</v>
       </c>
       <c r="I3" t="n">
-        <v>9.269570194089795</v>
+        <v>4.421114357959567</v>
       </c>
       <c r="J3" t="n">
-        <v>9.369762187594624</v>
+        <v>4.468876727798865</v>
       </c>
       <c r="K3" t="n">
-        <v>9.742669475029198</v>
+        <v>4.646713704618821</v>
       </c>
       <c r="L3" t="n">
-        <v>8.853667009393373</v>
+        <v>4.222790654345324</v>
       </c>
       <c r="M3" t="n">
-        <v>9.147393779676639</v>
+        <v>4.362843435161787</v>
       </c>
       <c r="N3" t="n">
-        <v>8.518443022516811</v>
+        <v>4.062952605658044</v>
       </c>
       <c r="O3" t="n">
-        <v>9.983716155737678</v>
+        <v>4.761611089272074</v>
       </c>
       <c r="P3" t="n">
-        <v>7.820757259650419</v>
+        <v>3.730048770439315</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.864947043732593</v>
+        <v>4.704857666525475</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9.805102967747088</v>
+        <v>4.676473654900937</v>
       </c>
       <c r="B4" t="n">
-        <v>9.758454868216591</v>
+        <v>4.654233280797975</v>
       </c>
       <c r="C4" t="n">
-        <v>9.794891042854148</v>
+        <v>4.671620892239881</v>
       </c>
       <c r="D4" t="n">
-        <v>9.424955162695362</v>
+        <v>4.495183976646814</v>
       </c>
       <c r="E4" t="n">
-        <v>9.607670423350669</v>
+        <v>4.582348024242547</v>
       </c>
       <c r="F4" t="n">
-        <v>9.246339312749766</v>
+        <v>4.409989727276897</v>
       </c>
       <c r="G4" t="n">
-        <v>9.387687792607085</v>
+        <v>4.477410404095886</v>
       </c>
       <c r="H4" t="n">
-        <v>9.196831608053746</v>
+        <v>4.386408646163646</v>
       </c>
       <c r="I4" t="n">
-        <v>9.408591459782851</v>
+        <v>4.487379055864856</v>
       </c>
       <c r="J4" t="n">
-        <v>9.489454997986897</v>
+        <v>4.525846618864833</v>
       </c>
       <c r="K4" t="n">
-        <v>9.843550914880661</v>
+        <v>4.694813155624058</v>
       </c>
       <c r="L4" t="n">
-        <v>9.000392638363429</v>
+        <v>4.292728648233109</v>
       </c>
       <c r="M4" t="n">
-        <v>9.273453986443995</v>
+        <v>4.42294386440069</v>
       </c>
       <c r="N4" t="n">
-        <v>8.7241795355554</v>
+        <v>4.161115592654233</v>
       </c>
       <c r="O4" t="n">
-        <v>10.01430135327138</v>
+        <v>4.776207782924808</v>
       </c>
       <c r="P4" t="n">
-        <v>8.106460232055928</v>
+        <v>3.866395880246044</v>
       </c>
       <c r="Q4" t="n">
-        <v>9.888773537505282</v>
+        <v>4.716178134382708</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10.00345122466567</v>
+        <v>4.771109668341651</v>
       </c>
       <c r="B5" t="n">
-        <v>9.952831488265769</v>
+        <v>4.746980433580966</v>
       </c>
       <c r="C5" t="n">
-        <v>9.992956467053316</v>
+        <v>4.76610804403575</v>
       </c>
       <c r="D5" t="n">
-        <v>9.547106954024709</v>
+        <v>4.553460930086922</v>
       </c>
       <c r="E5" t="n">
-        <v>9.790128139859116</v>
+        <v>4.669348609690957</v>
       </c>
       <c r="F5" t="n">
-        <v>9.372442776285974</v>
+        <v>4.470202199502218</v>
       </c>
       <c r="G5" t="n">
-        <v>9.507893029338071</v>
+        <v>4.534692618954023</v>
       </c>
       <c r="H5" t="n">
-        <v>9.308867304870379</v>
+        <v>4.439724920185243</v>
       </c>
       <c r="I5" t="n">
-        <v>9.467372084743337</v>
+        <v>4.515488197160107</v>
       </c>
       <c r="J5" t="n">
-        <v>9.650353540899275</v>
+        <v>4.602629709197666</v>
       </c>
       <c r="K5" t="n">
-        <v>9.885181894713025</v>
+        <v>4.714798386898398</v>
       </c>
       <c r="L5" t="n">
-        <v>9.161693136481761</v>
+        <v>4.36964409529494</v>
       </c>
       <c r="M5" t="n">
-        <v>9.388493033996493</v>
+        <v>4.477734471770484</v>
       </c>
       <c r="N5" t="n">
-        <v>9.064497838825279</v>
+        <v>4.323377324753105</v>
       </c>
       <c r="O5" t="n">
-        <v>10.17848741061654</v>
+        <v>4.854555983642993</v>
       </c>
       <c r="P5" t="n">
-        <v>8.396796337149912</v>
+        <v>4.004802295706833</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.829935015023409</v>
+        <v>4.68816707037585</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10.13580628953419</v>
+        <v>4.83423589301831</v>
       </c>
       <c r="B6" t="n">
-        <v>10.10622531452662</v>
+        <v>4.820128633600866</v>
       </c>
       <c r="C6" t="n">
-        <v>10.12560700892753</v>
+        <v>4.82936916465923</v>
       </c>
       <c r="D6" t="n">
-        <v>9.708395473345512</v>
+        <v>4.63044366642105</v>
       </c>
       <c r="E6" t="n">
-        <v>9.977610296441965</v>
+        <v>4.758779861399969</v>
       </c>
       <c r="F6" t="n">
-        <v>9.530077096871871</v>
+        <v>4.545371299506614</v>
       </c>
       <c r="G6" t="n">
-        <v>9.685313661485837</v>
+        <v>4.619343475709922</v>
       </c>
       <c r="H6" t="n">
-        <v>9.44613833514679</v>
+        <v>4.50532021679207</v>
       </c>
       <c r="I6" t="n">
-        <v>9.595643710632181</v>
+        <v>4.57674460531271</v>
       </c>
       <c r="J6" t="n">
-        <v>9.862612509192063</v>
+        <v>4.703904825037577</v>
       </c>
       <c r="K6" t="n">
-        <v>9.96776372487364</v>
+        <v>4.75413372758922</v>
       </c>
       <c r="L6" t="n">
-        <v>9.268229234255369</v>
+        <v>4.420440195627689</v>
       </c>
       <c r="M6" t="n">
-        <v>9.486055015955094</v>
+        <v>4.524296426384187</v>
       </c>
       <c r="N6" t="n">
-        <v>9.457285271735694</v>
+        <v>4.51056592341116</v>
       </c>
       <c r="O6" t="n">
-        <v>10.39423420545634</v>
+        <v>4.957445724615797</v>
       </c>
       <c r="P6" t="n">
-        <v>8.74654128858587</v>
+        <v>4.171499406537184</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.938610659133333</v>
+        <v>4.740133432722551</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10.29134631701888</v>
+        <v>4.908468656450653</v>
       </c>
       <c r="B7" t="n">
-        <v>10.26309698500321</v>
+        <v>4.894992075259877</v>
       </c>
       <c r="C7" t="n">
-        <v>10.28097201287055</v>
+        <v>4.903554000355173</v>
       </c>
       <c r="D7" t="n">
-        <v>9.890943030835421</v>
+        <v>4.717575656391775</v>
       </c>
       <c r="E7" t="n">
-        <v>10.12502936469116</v>
+        <v>4.829124764943812</v>
       </c>
       <c r="F7" t="n">
-        <v>9.681377295520262</v>
+        <v>4.617606968121549</v>
       </c>
       <c r="G7" t="n">
-        <v>9.895354555769622</v>
+        <v>4.719564816153488</v>
       </c>
       <c r="H7" t="n">
-        <v>9.65927175565915</v>
+        <v>4.60699176801452</v>
       </c>
       <c r="I7" t="n">
-        <v>9.715638652917669</v>
+        <v>4.63387986293937</v>
       </c>
       <c r="J7" t="n">
-        <v>10.00761585327304</v>
+        <v>4.773130250923918</v>
       </c>
       <c r="K7" t="n">
-        <v>10.0348483184763</v>
+        <v>4.786125967739555</v>
       </c>
       <c r="L7" t="n">
-        <v>9.340815423367307</v>
+        <v>4.455125276278801</v>
       </c>
       <c r="M7" t="n">
-        <v>9.568909031015103</v>
+        <v>4.56384664838324</v>
       </c>
       <c r="N7" t="n">
-        <v>9.743100711740221</v>
+        <v>4.647050468382533</v>
       </c>
       <c r="O7" t="n">
-        <v>10.56091651110867</v>
+        <v>5.037031476620231</v>
       </c>
       <c r="P7" t="n">
-        <v>9.03445235266911</v>
+        <v>4.309041535731635</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.04416915393088</v>
+        <v>4.790546745968555</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10.41932712432328</v>
+        <v>4.969467016592043</v>
       </c>
       <c r="B8" t="n">
-        <v>10.3923382280031</v>
+        <v>4.956590643014064</v>
       </c>
       <c r="C8" t="n">
-        <v>10.43717819459557</v>
+        <v>4.977997518866785</v>
       </c>
       <c r="D8" t="n">
-        <v>10.02064279558515</v>
+        <v>4.779317055148478</v>
       </c>
       <c r="E8" t="n">
-        <v>10.25363107300079</v>
+        <v>4.890454175608813</v>
       </c>
       <c r="F8" t="n">
-        <v>9.698510303429597</v>
+        <v>4.625664541076848</v>
       </c>
       <c r="G8" t="n">
-        <v>9.985701974172381</v>
+        <v>4.76266613427733</v>
       </c>
       <c r="H8" t="n">
-        <v>9.632082547224746</v>
+        <v>4.594037630890727</v>
       </c>
       <c r="I8" t="n">
-        <v>9.859667721466337</v>
+        <v>4.702559991798326</v>
       </c>
       <c r="J8" t="n">
-        <v>9.975114048134801</v>
+        <v>4.757546436342682</v>
       </c>
       <c r="K8" t="n">
-        <v>10.24073123904023</v>
+        <v>4.884177229151554</v>
       </c>
       <c r="L8" t="n">
-        <v>9.489057035713454</v>
+        <v>4.525781234005903</v>
       </c>
       <c r="M8" t="n">
-        <v>9.751490528431344</v>
+        <v>4.650977368745053</v>
       </c>
       <c r="N8" t="n">
-        <v>9.986056679676972</v>
+        <v>4.762749611063245</v>
       </c>
       <c r="O8" t="n">
-        <v>10.73401945223621</v>
+        <v>5.11953288548937</v>
       </c>
       <c r="P8" t="n">
-        <v>9.424878631488932</v>
+        <v>4.495176993797802</v>
       </c>
       <c r="Q8" t="n">
-        <v>10.13608313285485</v>
+        <v>4.834366980138397</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10.58162519008022</v>
+        <v>5.046869358671342</v>
       </c>
       <c r="B9" t="n">
-        <v>10.54641284925682</v>
+        <v>5.03008830288679</v>
       </c>
       <c r="C9" t="n">
-        <v>10.56799731142544</v>
+        <v>5.040382609341497</v>
       </c>
       <c r="D9" t="n">
-        <v>10.07478163650339</v>
+        <v>4.805110429789596</v>
       </c>
       <c r="E9" t="n">
-        <v>10.43224958490139</v>
+        <v>4.975672864950272</v>
       </c>
       <c r="F9" t="n">
-        <v>9.845822893478543</v>
+        <v>4.695931363672648</v>
       </c>
       <c r="G9" t="n">
-        <v>10.16243116350726</v>
+        <v>4.846959913526937</v>
       </c>
       <c r="H9" t="n">
-        <v>9.926758304467759</v>
+        <v>4.734487799296415</v>
       </c>
       <c r="I9" t="n">
-        <v>10.07591230189232</v>
+        <v>4.805710637402393</v>
       </c>
       <c r="J9" t="n">
-        <v>10.37546076777437</v>
+        <v>4.948545131343423</v>
       </c>
       <c r="K9" t="n">
-        <v>10.55030595845354</v>
+        <v>5.031977480946741</v>
       </c>
       <c r="L9" t="n">
-        <v>9.6794087797931</v>
+        <v>4.616519548089056</v>
       </c>
       <c r="M9" t="n">
-        <v>9.97037643371233</v>
+        <v>4.755303989603172</v>
       </c>
       <c r="N9" t="n">
-        <v>10.15200761319132</v>
+        <v>4.842061127542848</v>
       </c>
       <c r="O9" t="n">
-        <v>10.9405818368155</v>
+        <v>5.218131983146576</v>
       </c>
       <c r="P9" t="n">
-        <v>9.626621546529309</v>
+        <v>4.591437154438244</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.45306806951696</v>
+        <v>4.985504398956826</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10.76954057984035</v>
+        <v>5.136416144791279</v>
       </c>
       <c r="B10" t="n">
-        <v>10.72589183811321</v>
+        <v>5.115612015769178</v>
       </c>
       <c r="C10" t="n">
-        <v>10.73809490535086</v>
+        <v>5.121415715504765</v>
       </c>
       <c r="D10" t="n">
-        <v>10.229869131637</v>
+        <v>4.879015634122834</v>
       </c>
       <c r="E10" t="n">
-        <v>10.56676615723503</v>
+        <v>5.039764309801714</v>
       </c>
       <c r="F10" t="n">
-        <v>10.00750405116277</v>
+        <v>4.773048361149142</v>
       </c>
       <c r="G10" t="n">
-        <v>10.26497632523766</v>
+        <v>4.89586588359305</v>
       </c>
       <c r="H10" t="n">
-        <v>10.08834895568178</v>
+        <v>4.811543855545168</v>
       </c>
       <c r="I10" t="n">
-        <v>10.21005220759256</v>
+        <v>4.869673216949343</v>
       </c>
       <c r="J10" t="n">
-        <v>10.48103656527945</v>
+        <v>4.998863858725538</v>
       </c>
       <c r="K10" t="n">
-        <v>10.60522608316613</v>
+        <v>5.058202205215458</v>
       </c>
       <c r="L10" t="n">
-        <v>9.879567831604726</v>
+        <v>4.712076027990433</v>
       </c>
       <c r="M10" t="n">
-        <v>10.15313694760274</v>
+        <v>4.842574366945224</v>
       </c>
       <c r="N10" t="n">
-        <v>10.2665974558365</v>
+        <v>4.896645423464562</v>
       </c>
       <c r="O10" t="n">
-        <v>11.0780139153698</v>
+        <v>5.283656816458829</v>
       </c>
       <c r="P10" t="n">
-        <v>9.69932219970652</v>
+        <v>4.626113030424749</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.80555483460941</v>
+        <v>5.15382629179136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10.87979210131401</v>
+        <v>5.189102057988435</v>
       </c>
       <c r="B11" t="n">
-        <v>10.8194176307935</v>
+        <v>5.160297805814269</v>
       </c>
       <c r="C11" t="n">
-        <v>10.86354219697802</v>
+        <v>5.181366648294368</v>
       </c>
       <c r="D11" t="n">
-        <v>10.37650026120433</v>
+        <v>4.949092015381947</v>
       </c>
       <c r="E11" t="n">
-        <v>10.61028645963312</v>
+        <v>5.060566534410448</v>
       </c>
       <c r="F11" t="n">
-        <v>10.1477777666863</v>
+        <v>4.839972938286056</v>
       </c>
       <c r="G11" t="n">
-        <v>10.37997943639758</v>
+        <v>4.950712671157167</v>
       </c>
       <c r="H11" t="n">
-        <v>10.17588601508663</v>
+        <v>4.853238129593108</v>
       </c>
       <c r="I11" t="n">
-        <v>10.35610036901351</v>
+        <v>4.93930872651402</v>
       </c>
       <c r="J11" t="n">
-        <v>10.49734836006934</v>
+        <v>5.006553245096572</v>
       </c>
       <c r="K11" t="n">
-        <v>10.59126412915806</v>
+        <v>5.051345999692437</v>
       </c>
       <c r="L11" t="n">
-        <v>10.05275262784871</v>
+        <v>4.794651391578652</v>
       </c>
       <c r="M11" t="n">
-        <v>10.31380722787333</v>
+        <v>4.919136227925271</v>
       </c>
       <c r="N11" t="n">
-        <v>10.28881812525164</v>
+        <v>4.907358383457757</v>
       </c>
       <c r="O11" t="n">
-        <v>11.30885133314034</v>
+        <v>5.393763966689906</v>
       </c>
       <c r="P11" t="n">
-        <v>9.687916387993251</v>
+        <v>4.620772103137314</v>
       </c>
       <c r="Q11" t="n">
-        <v>11.12349674409628</v>
+        <v>5.305387442583921</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10.98450941832956</v>
+        <v>5.238911354794908</v>
       </c>
       <c r="B12" t="n">
-        <v>10.94185558228602</v>
+        <v>5.218557936936303</v>
       </c>
       <c r="C12" t="n">
-        <v>10.966648365726</v>
+        <v>5.230374504475609</v>
       </c>
       <c r="D12" t="n">
-        <v>10.54110890390675</v>
+        <v>5.027467830093952</v>
       </c>
       <c r="E12" t="n">
-        <v>10.80724983445967</v>
+        <v>5.154352544685076</v>
       </c>
       <c r="F12" t="n">
-        <v>10.25531342856477</v>
+        <v>4.891224193413491</v>
       </c>
       <c r="G12" t="n">
-        <v>10.56539258845177</v>
+        <v>5.039036189091108</v>
       </c>
       <c r="H12" t="n">
-        <v>10.05040478353315</v>
+        <v>4.793530326910012</v>
       </c>
       <c r="I12" t="n">
-        <v>10.52512053665013</v>
+        <v>5.019918418105385</v>
       </c>
       <c r="J12" t="n">
-        <v>10.33480938738433</v>
+        <v>4.929168360139803</v>
       </c>
       <c r="K12" t="n">
-        <v>10.72322256273063</v>
+        <v>5.114399221856698</v>
       </c>
       <c r="L12" t="n">
-        <v>10.17749183944418</v>
+        <v>4.854153200215897</v>
       </c>
       <c r="M12" t="n">
-        <v>10.48291657100266</v>
+        <v>4.999751950158963</v>
       </c>
       <c r="N12" t="n">
-        <v>10.44799837620745</v>
+        <v>4.983198471771754</v>
       </c>
       <c r="O12" t="n">
-        <v>11.56342074528085</v>
+        <v>5.515059862853671</v>
       </c>
       <c r="P12" t="n">
-        <v>9.69157591063817</v>
+        <v>4.622499406061081</v>
       </c>
       <c r="Q12" t="n">
-        <v>11.35165690061924</v>
+        <v>5.414211018205716</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11.07478496394715</v>
+        <v>5.282123446296257</v>
       </c>
       <c r="B13" t="n">
-        <v>11.00554485227813</v>
+        <v>5.249083143989679</v>
       </c>
       <c r="C13" t="n">
-        <v>11.0829764649903</v>
+        <v>5.286050346658778</v>
       </c>
       <c r="D13" t="n">
-        <v>10.76197131077992</v>
+        <v>5.132940272994482</v>
       </c>
       <c r="E13" t="n">
-        <v>10.82348975646439</v>
+        <v>5.162179366220753</v>
       </c>
       <c r="F13" t="n">
-        <v>10.39489969420792</v>
+        <v>4.957846603629526</v>
       </c>
       <c r="G13" t="n">
-        <v>10.73458644865255</v>
+        <v>5.119784268053799</v>
       </c>
       <c r="H13" t="n">
-        <v>10.13573042381651</v>
+        <v>4.834215261873502</v>
       </c>
       <c r="I13" t="n">
-        <v>10.69746016217961</v>
+        <v>5.102104329160076</v>
       </c>
       <c r="J13" t="n">
-        <v>10.35331463309941</v>
+        <v>4.93782899732795</v>
       </c>
       <c r="K13" t="n">
-        <v>10.98019638573059</v>
+        <v>5.236852049140848</v>
       </c>
       <c r="L13" t="n">
-        <v>10.39495825721806</v>
+        <v>4.957889135528053</v>
       </c>
       <c r="M13" t="n">
-        <v>10.73068202614705</v>
+        <v>5.117955079014904</v>
       </c>
       <c r="N13" t="n">
-        <v>10.62638596351125</v>
+        <v>5.068367011561217</v>
       </c>
       <c r="O13" t="n">
-        <v>11.77059271755659</v>
+        <v>5.614035399553066</v>
       </c>
       <c r="P13" t="n">
-        <v>9.731536513704077</v>
+        <v>4.641432131547989</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.69768176993388</v>
+        <v>5.579088779466234</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11.37126353021818</v>
+        <v>5.423438535772739</v>
       </c>
       <c r="B14" t="n">
-        <v>11.31494721010478</v>
+        <v>5.396547584227839</v>
       </c>
       <c r="C14" t="n">
-        <v>11.33837241416027</v>
+        <v>5.407777275047916</v>
       </c>
       <c r="D14" t="n">
-        <v>10.89124449723989</v>
+        <v>5.194502022090242</v>
       </c>
       <c r="E14" t="n">
-        <v>11.19266631395763</v>
+        <v>5.338246508218417</v>
       </c>
       <c r="F14" t="n">
-        <v>10.62488195893269</v>
+        <v>5.067576997416187</v>
       </c>
       <c r="G14" t="n">
-        <v>11.03724075053821</v>
+        <v>5.26415657578859</v>
       </c>
       <c r="H14" t="n">
-        <v>10.41837081698727</v>
+        <v>4.969194685480578</v>
       </c>
       <c r="I14" t="n">
-        <v>10.96511308317611</v>
+        <v>5.229904749178444</v>
       </c>
       <c r="J14" t="n">
-        <v>10.79532826896393</v>
+        <v>5.148828476312192</v>
       </c>
       <c r="K14" t="n">
-        <v>11.23602024416782</v>
+        <v>5.35881798140753</v>
       </c>
       <c r="L14" t="n">
-        <v>10.57973387104824</v>
+        <v>5.045990789304751</v>
       </c>
       <c r="M14" t="n">
-        <v>10.99237882281695</v>
+        <v>5.242725259964327</v>
       </c>
       <c r="N14" t="n">
-        <v>10.62987046261451</v>
+        <v>5.069934026359937</v>
       </c>
       <c r="O14" t="n">
-        <v>12.0084849815826</v>
+        <v>5.727426710635339</v>
       </c>
       <c r="P14" t="n">
-        <v>9.76740436094779</v>
+        <v>4.658502340762079</v>
       </c>
       <c r="Q14" t="n">
-        <v>11.96135373721846</v>
+        <v>5.704870838717929</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>11.6092050404118</v>
+        <v>5.5369187194788</v>
       </c>
       <c r="B15" t="n">
-        <v>11.54390329117462</v>
+        <v>5.50577267366782</v>
       </c>
       <c r="C15" t="n">
-        <v>11.57762094426199</v>
+        <v>5.521882741142772</v>
       </c>
       <c r="D15" t="n">
-        <v>11.11859142650841</v>
+        <v>5.302978042272581</v>
       </c>
       <c r="E15" t="n">
-        <v>11.37383231679927</v>
+        <v>5.424704335857263</v>
       </c>
       <c r="F15" t="n">
-        <v>10.75159900309785</v>
+        <v>5.127957058017794</v>
       </c>
       <c r="G15" t="n">
-        <v>11.21961594644146</v>
+        <v>5.351147004365709</v>
       </c>
       <c r="H15" t="n">
-        <v>10.4978561279868</v>
+        <v>5.006902387547168</v>
       </c>
       <c r="I15" t="n">
-        <v>11.23111825402371</v>
+        <v>5.356639332515811</v>
       </c>
       <c r="J15" t="n">
-        <v>10.83482968479125</v>
+        <v>5.167716130682749</v>
       </c>
       <c r="K15" t="n">
-        <v>11.64097946634457</v>
+        <v>5.552112129319824</v>
       </c>
       <c r="L15" t="n">
-        <v>10.77056609800653</v>
+        <v>5.137069041173893</v>
       </c>
       <c r="M15" t="n">
-        <v>11.24198036142694</v>
+        <v>5.361875834470294</v>
       </c>
       <c r="N15" t="n">
-        <v>10.70054736449817</v>
+        <v>5.103686261863503</v>
       </c>
       <c r="O15" t="n">
-        <v>12.34281854450955</v>
+        <v>5.886897842347266</v>
       </c>
       <c r="P15" t="n">
-        <v>9.81588588198888</v>
+        <v>4.681739040458151</v>
       </c>
       <c r="Q15" t="n">
-        <v>12.35452449164978</v>
+        <v>5.89233176848745</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11.84740076730853</v>
+        <v>5.650562682734414</v>
       </c>
       <c r="B16" t="n">
-        <v>11.76957185781167</v>
+        <v>5.613432335320218</v>
       </c>
       <c r="C16" t="n">
-        <v>11.80649184277163</v>
+        <v>5.631081168795616</v>
       </c>
       <c r="D16" t="n">
-        <v>11.36533934935165</v>
+        <v>5.420650474603616</v>
       </c>
       <c r="E16" t="n">
-        <v>11.58773504230845</v>
+        <v>5.526730107965955</v>
       </c>
       <c r="F16" t="n">
-        <v>11.05753882295005</v>
+        <v>5.27386083150179</v>
       </c>
       <c r="G16" t="n">
-        <v>11.50056133976195</v>
+        <v>5.485081222436592</v>
       </c>
       <c r="H16" t="n">
-        <v>10.68180254283252</v>
+        <v>5.094846927221098</v>
       </c>
       <c r="I16" t="n">
-        <v>11.61001693668873</v>
+        <v>5.537391013993788</v>
       </c>
       <c r="J16" t="n">
-        <v>11.05927907603542</v>
+        <v>5.274939999076359</v>
       </c>
       <c r="K16" t="n">
-        <v>12.166967134838</v>
+        <v>5.803024303647285</v>
       </c>
       <c r="L16" t="n">
-        <v>10.99948291524002</v>
+        <v>5.246188435672011</v>
       </c>
       <c r="M16" t="n">
-        <v>11.45761601964523</v>
+        <v>5.464650041032173</v>
       </c>
       <c r="N16" t="n">
-        <v>10.7978025561423</v>
+        <v>5.150043174638038</v>
       </c>
       <c r="O16" t="n">
-        <v>12.60507701368578</v>
+        <v>6.012059697645812</v>
       </c>
       <c r="P16" t="n">
-        <v>9.771075196901485</v>
+        <v>4.660439446558431</v>
       </c>
       <c r="Q16" t="n">
-        <v>12.74745300817553</v>
+        <v>6.079908232667894</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>12.17456834735851</v>
+        <v>5.806576669380985</v>
       </c>
       <c r="B17" t="n">
-        <v>12.10297240550892</v>
+        <v>5.772418476428045</v>
       </c>
       <c r="C17" t="n">
-        <v>12.12261097856793</v>
+        <v>5.781813582371353</v>
       </c>
       <c r="D17" t="n">
-        <v>11.71353903590644</v>
+        <v>5.586714685391705</v>
       </c>
       <c r="E17" t="n">
-        <v>11.91135024340251</v>
+        <v>5.681041549062528</v>
       </c>
       <c r="F17" t="n">
-        <v>11.47256289700563</v>
+        <v>5.471851262776828</v>
       </c>
       <c r="G17" t="n">
-        <v>11.80549227866676</v>
+        <v>5.630593638973693</v>
       </c>
       <c r="H17" t="n">
-        <v>11.95228046357946</v>
+        <v>5.70060114394937</v>
       </c>
       <c r="I17" t="n">
-        <v>12.04993960689579</v>
+        <v>5.74718817333907</v>
       </c>
       <c r="J17" t="n">
-        <v>12.50373239366322</v>
+        <v>5.963649509859545</v>
       </c>
       <c r="K17" t="n">
-        <v>12.72879403455883</v>
+        <v>6.070824180907843</v>
       </c>
       <c r="L17" t="n">
-        <v>11.19364192046744</v>
+        <v>5.338883851891868</v>
       </c>
       <c r="M17" t="n">
-        <v>11.68791239506074</v>
+        <v>5.574577859004535</v>
       </c>
       <c r="N17" t="n">
-        <v>10.9743966512606</v>
+        <v>5.234241733219301</v>
       </c>
       <c r="O17" t="n">
-        <v>12.78830869361231</v>
+        <v>6.099380224539858</v>
       </c>
       <c r="P17" t="n">
-        <v>9.77572097387624</v>
+        <v>4.662792031870993</v>
       </c>
       <c r="Q17" t="n">
-        <v>13.32646016550705</v>
+        <v>6.355838685396149</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>11.79574819236618</v>
+        <v>5.62603383856891</v>
       </c>
       <c r="B18" t="n">
-        <v>11.76410287125122</v>
+        <v>5.610935014591774</v>
       </c>
       <c r="C18" t="n">
-        <v>11.78892027777501</v>
+        <v>5.622761421600142</v>
       </c>
       <c r="D18" t="n">
-        <v>11.72948547737172</v>
+        <v>5.594368522713224</v>
       </c>
       <c r="E18" t="n">
-        <v>12.05640416462861</v>
+        <v>5.750276497015705</v>
       </c>
       <c r="F18" t="n">
-        <v>11.60338999970053</v>
+        <v>5.5342290530003</v>
       </c>
       <c r="G18" t="n">
-        <v>12.1109449607528</v>
+        <v>5.77624888651331</v>
       </c>
       <c r="H18" t="n">
-        <v>11.16734845989266</v>
+        <v>5.326336941826361</v>
       </c>
       <c r="I18" t="n">
-        <v>12.729074870812</v>
+        <v>6.070979707999473</v>
       </c>
       <c r="J18" t="n">
-        <v>11.71492458348723</v>
+        <v>5.587338698171589</v>
       </c>
       <c r="K18" t="n">
-        <v>13.27714079412773</v>
+        <v>6.332182697357134</v>
       </c>
       <c r="L18" t="n">
-        <v>11.40823409232326</v>
+        <v>5.44117687667638</v>
       </c>
       <c r="M18" t="n">
-        <v>11.8877040970815</v>
+        <v>5.66988041712366</v>
       </c>
       <c r="N18" t="n">
-        <v>11.09644129890095</v>
+        <v>5.29225873423483</v>
       </c>
       <c r="O18" t="n">
-        <v>12.97211402484269</v>
+        <v>6.187077190476092</v>
       </c>
       <c r="P18" t="n">
-        <v>9.929697102794719</v>
+        <v>4.735798987899516</v>
       </c>
       <c r="Q18" t="n">
-        <v>13.66342240900273</v>
+        <v>6.516937455732308</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>12.57773740479352</v>
+        <v>5.998869730666753</v>
       </c>
       <c r="B19" t="n">
-        <v>12.52061850524571</v>
+        <v>5.971644237173736</v>
       </c>
       <c r="C19" t="n">
-        <v>12.54892041087276</v>
+        <v>5.985099552415249</v>
       </c>
       <c r="D19" t="n">
-        <v>12.25056583181103</v>
+        <v>5.84286907491375</v>
       </c>
       <c r="E19" t="n">
-        <v>12.59420692041753</v>
+        <v>6.006672747035344</v>
       </c>
       <c r="F19" t="n">
-        <v>12.13281025917459</v>
+        <v>5.786727603662377</v>
       </c>
       <c r="G19" t="n">
-        <v>12.36187148746718</v>
+        <v>5.895917144052842</v>
       </c>
       <c r="H19" t="n">
-        <v>11.87846312027711</v>
+        <v>5.665509153642199</v>
       </c>
       <c r="I19" t="n">
-        <v>12.55500297806216</v>
+        <v>5.988147883411179</v>
       </c>
       <c r="J19" t="n">
-        <v>12.23795082703615</v>
+        <v>5.836950792973921</v>
       </c>
       <c r="K19" t="n">
-        <v>12.75513407934622</v>
+        <v>6.083377439017907</v>
       </c>
       <c r="L19" t="n">
-        <v>11.76236993854211</v>
+        <v>5.610036766287059</v>
       </c>
       <c r="M19" t="n">
-        <v>12.13333732626584</v>
+        <v>5.786954228853037</v>
       </c>
       <c r="N19" t="n">
-        <v>11.31248889465646</v>
+        <v>5.395493808831495</v>
       </c>
       <c r="O19" t="n">
-        <v>13.31781945955658</v>
+        <v>6.352010179724251</v>
       </c>
       <c r="P19" t="n">
-        <v>10.22271778951256</v>
+        <v>4.875656883748102</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.06663805065035</v>
+        <v>6.709233056235899</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>13.22691635804626</v>
+        <v>6.308409905298284</v>
       </c>
       <c r="B20" t="n">
-        <v>13.16708492634703</v>
+        <v>6.279890680324696</v>
       </c>
       <c r="C20" t="n">
-        <v>13.17553264055954</v>
+        <v>6.283900740070904</v>
       </c>
       <c r="D20" t="n">
-        <v>12.75615094615863</v>
+        <v>6.083908770347268</v>
       </c>
       <c r="E20" t="n">
-        <v>12.98102891215881</v>
+        <v>6.191151365472319</v>
       </c>
       <c r="F20" t="n">
-        <v>12.34870945093851</v>
+        <v>5.889619883853003</v>
       </c>
       <c r="G20" t="n">
-        <v>12.99971583630308</v>
+        <v>6.200171936786807</v>
       </c>
       <c r="H20" t="n">
-        <v>11.73424505292299</v>
+        <v>5.596652549144578</v>
       </c>
       <c r="I20" t="n">
-        <v>13.84380313511751</v>
+        <v>6.602822689752177</v>
       </c>
       <c r="J20" t="n">
-        <v>11.92123142038592</v>
+        <v>5.685973979682766</v>
       </c>
       <c r="K20" t="n">
-        <v>14.6147958114138</v>
+        <v>6.970542692742106</v>
       </c>
       <c r="L20" t="n">
-        <v>11.90033241163141</v>
+        <v>5.675808855934779</v>
       </c>
       <c r="M20" t="n">
-        <v>12.43718884241559</v>
+        <v>5.931945470932066</v>
       </c>
       <c r="N20" t="n">
-        <v>11.47493070598374</v>
+        <v>5.472877741581581</v>
       </c>
       <c r="O20" t="n">
-        <v>13.48013482802107</v>
+        <v>6.429463940964455</v>
       </c>
       <c r="P20" t="n">
-        <v>10.47614721942162</v>
+        <v>4.996437953498352</v>
       </c>
       <c r="Q20" t="n">
-        <v>14.06848278546972</v>
+        <v>6.710079885379708</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>14.1556950863638</v>
+        <v>6.751337096559947</v>
       </c>
       <c r="B21" t="n">
-        <v>14.06710522375396</v>
+        <v>6.709091494842293</v>
       </c>
       <c r="C21" t="n">
-        <v>14.077675847084</v>
+        <v>6.714110258868496</v>
       </c>
       <c r="D21" t="n">
-        <v>13.60990380360096</v>
+        <v>6.490993632435207</v>
       </c>
       <c r="E21" t="n">
-        <v>13.91217678043197</v>
+        <v>6.63522183955857</v>
       </c>
       <c r="F21" t="n">
-        <v>13.25853106667865</v>
+        <v>6.323516981733343</v>
       </c>
       <c r="G21" t="n">
-        <v>13.97405791748605</v>
+        <v>6.664812614453259</v>
       </c>
       <c r="H21" t="n">
-        <v>12.52344283950741</v>
+        <v>5.973039537367208</v>
       </c>
       <c r="I21" t="n">
-        <v>14.85881190293181</v>
+        <v>7.086798876332633</v>
       </c>
       <c r="J21" t="n">
-        <v>12.11168764619956</v>
+        <v>5.776687536392149</v>
       </c>
       <c r="K21" t="n">
-        <v>15.66264644911839</v>
+        <v>7.47034201518357</v>
       </c>
       <c r="L21" t="n">
-        <v>12.78054909476893</v>
+        <v>6.095598059593221</v>
       </c>
       <c r="M21" t="n">
-        <v>13.32590115495573</v>
+        <v>6.355681253891153</v>
       </c>
       <c r="N21" t="n">
-        <v>12.21591383251645</v>
+        <v>5.82656539207983</v>
       </c>
       <c r="O21" t="n">
-        <v>14.37075975523324</v>
+        <v>6.853984977035156</v>
       </c>
       <c r="P21" t="n">
-        <v>11.15217132342421</v>
+        <v>5.319171586533448</v>
       </c>
       <c r="Q21" t="n">
-        <v>14.55602117585208</v>
+        <v>6.942386575917138</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>14.76054849582905</v>
+        <v>7.040077903202794</v>
       </c>
       <c r="B22" t="n">
-        <v>14.69584701744579</v>
+        <v>7.009209266938924</v>
       </c>
       <c r="C22" t="n">
-        <v>14.72298165580256</v>
+        <v>7.022078022863434</v>
       </c>
       <c r="D22" t="n">
-        <v>14.37548073243692</v>
+        <v>6.85634708441455</v>
       </c>
       <c r="E22" t="n">
-        <v>14.81020194256167</v>
+        <v>7.063485047895202</v>
       </c>
       <c r="F22" t="n">
-        <v>14.11789399429676</v>
+        <v>6.733467351133991</v>
       </c>
       <c r="G22" t="n">
-        <v>14.8591885695652</v>
+        <v>7.086965829904464</v>
       </c>
       <c r="H22" t="n">
-        <v>13.46077709121522</v>
+        <v>6.420086609545904</v>
       </c>
       <c r="I22" t="n">
-        <v>15.26371788600843</v>
+        <v>7.280080328155815</v>
       </c>
       <c r="J22" t="n">
-        <v>12.86281149032878</v>
+        <v>6.134804217577323</v>
       </c>
       <c r="K22" t="n">
-        <v>15.48576885579192</v>
+        <v>7.38582795878786</v>
       </c>
       <c r="L22" t="n">
-        <v>13.76017914957192</v>
+        <v>6.562890950275291</v>
       </c>
       <c r="M22" t="n">
-        <v>14.32507129048251</v>
+        <v>6.832217532251637</v>
       </c>
       <c r="N22" t="n">
-        <v>13.27412346812808</v>
+        <v>6.331086390062263</v>
       </c>
       <c r="O22" t="n">
-        <v>15.00091903996593</v>
+        <v>7.154489345045264</v>
       </c>
       <c r="P22" t="n">
-        <v>11.84993894140704</v>
+        <v>5.651868475499643</v>
       </c>
       <c r="Q22" t="n">
-        <v>14.4839700396964</v>
+        <v>6.907782750236346</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>15.09106614625446</v>
+        <v>7.19777158243896</v>
       </c>
       <c r="B23" t="n">
-        <v>15.03312470260971</v>
+        <v>7.170113152307205</v>
       </c>
       <c r="C23" t="n">
-        <v>15.04277295853007</v>
+        <v>7.17472056304616</v>
       </c>
       <c r="D23" t="n">
-        <v>14.67488678372614</v>
+        <v>6.999146981512749</v>
       </c>
       <c r="E23" t="n">
-        <v>15.07624304980185</v>
+        <v>7.190538620471523</v>
       </c>
       <c r="F23" t="n">
-        <v>14.30045619253921</v>
+        <v>6.820555539597277</v>
       </c>
       <c r="G23" t="n">
-        <v>14.99134398780825</v>
+        <v>7.149985407432577</v>
       </c>
       <c r="H23" t="n">
-        <v>13.62346646435809</v>
+        <v>6.497639400281186</v>
       </c>
       <c r="I23" t="n">
-        <v>15.28175928606367</v>
+        <v>7.288630509368682</v>
       </c>
       <c r="J23" t="n">
-        <v>13.11384316426592</v>
+        <v>6.254612766901549</v>
       </c>
       <c r="K23" t="n">
-        <v>15.40609654245319</v>
+        <v>7.347790475806571</v>
       </c>
       <c r="L23" t="n">
-        <v>13.76957185781167</v>
+        <v>6.567360608447375</v>
       </c>
       <c r="M23" t="n">
-        <v>14.32229487141094</v>
+        <v>6.830881268872538</v>
       </c>
       <c r="N23" t="n">
-        <v>13.34299489902872</v>
+        <v>6.364068925163378</v>
       </c>
       <c r="O23" t="n">
-        <v>15.25203722744076</v>
+        <v>7.274365183641788</v>
       </c>
       <c r="P23" t="n">
-        <v>11.99941969380863</v>
+        <v>5.72312337123063</v>
       </c>
       <c r="Q23" t="n">
-        <v>14.52541135523457</v>
+        <v>6.927779090588659</v>
       </c>
     </row>
   </sheetData>
@@ -1729,1168 +1729,1168 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.342789263004482</v>
+        <v>3.025175233802448</v>
       </c>
       <c r="B2" t="n">
-        <v>6.257745789951786</v>
+        <v>2.9846048810432</v>
       </c>
       <c r="C2" t="n">
-        <v>6.231973407069487</v>
+        <v>2.972324271446829</v>
       </c>
       <c r="D2" t="n">
-        <v>6.12396857562115</v>
+        <v>2.920789576129956</v>
       </c>
       <c r="E2" t="n">
-        <v>6.196550771800579</v>
+        <v>2.955394671419659</v>
       </c>
       <c r="F2" t="n">
-        <v>6.470681560304927</v>
+        <v>3.08614724955893</v>
       </c>
       <c r="G2" t="n">
-        <v>6.606689492930846</v>
+        <v>3.151053148526944</v>
       </c>
       <c r="H2" t="n">
-        <v>7.171338730447109</v>
+        <v>3.420364812598583</v>
       </c>
       <c r="I2" t="n">
-        <v>6.951892483637296</v>
+        <v>3.315703967194575</v>
       </c>
       <c r="J2" t="n">
-        <v>7.50714901291381</v>
+        <v>3.580548512311953</v>
       </c>
       <c r="K2" t="n">
-        <v>7.092425074285182</v>
+        <v>3.38273011304439</v>
       </c>
       <c r="L2" t="n">
-        <v>7.753035793312503</v>
+        <v>3.697768329066125</v>
       </c>
       <c r="M2" t="n">
-        <v>7.854985342610247</v>
+        <v>3.746407998663102</v>
       </c>
       <c r="N2" t="n">
-        <v>8.321797751313509</v>
+        <v>3.969058361223732</v>
       </c>
       <c r="O2" t="n">
-        <v>8.53634600091172</v>
+        <v>4.071406296593655</v>
       </c>
       <c r="P2" t="n">
-        <v>8.969019502147866</v>
+        <v>4.277822170006029</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.483462937267703</v>
+        <v>4.523076967024924</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.090027318313252</v>
+        <v>2.904820435244153</v>
       </c>
       <c r="B3" t="n">
-        <v>6.003970971380657</v>
+        <v>2.863777470567688</v>
       </c>
       <c r="C3" t="n">
-        <v>5.991530990147439</v>
+        <v>2.857848396952114</v>
       </c>
       <c r="D3" t="n">
-        <v>5.975017552265823</v>
+        <v>2.84994254226171</v>
       </c>
       <c r="E3" t="n">
-        <v>6.02166964472883</v>
+        <v>2.87218164675576</v>
       </c>
       <c r="F3" t="n">
-        <v>6.416162725309535</v>
+        <v>3.06024817997595</v>
       </c>
       <c r="G3" t="n">
-        <v>6.495296658248234</v>
+        <v>3.098037137012861</v>
       </c>
       <c r="H3" t="n">
-        <v>7.190408976112281</v>
+        <v>3.429492665866072</v>
       </c>
       <c r="I3" t="n">
-        <v>6.946601182573511</v>
+        <v>3.313248226157975</v>
       </c>
       <c r="J3" t="n">
-        <v>7.666840359230828</v>
+        <v>3.656600942716357</v>
       </c>
       <c r="K3" t="n">
-        <v>7.074699115898193</v>
+        <v>3.37433736333652</v>
       </c>
       <c r="L3" t="n">
-        <v>7.689742489127577</v>
+        <v>3.667548780358135</v>
       </c>
       <c r="M3" t="n">
-        <v>7.754284915699213</v>
+        <v>3.698345366316292</v>
       </c>
       <c r="N3" t="n">
-        <v>8.386974388665395</v>
+        <v>4.000113947399785</v>
       </c>
       <c r="O3" t="n">
-        <v>8.498601475388563</v>
+        <v>4.053347062037694</v>
       </c>
       <c r="P3" t="n">
-        <v>9.141697861451897</v>
+        <v>4.360061722037221</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.492966782128965</v>
+        <v>4.52757233477746</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.092170192093328</v>
+        <v>2.905756454413978</v>
       </c>
       <c r="B4" t="n">
-        <v>6.011193520801514</v>
+        <v>2.86713495133351</v>
       </c>
       <c r="C4" t="n">
-        <v>5.989997038575056</v>
+        <v>2.857021564148657</v>
       </c>
       <c r="D4" t="n">
-        <v>5.945075216866146</v>
+        <v>2.83556612575508</v>
       </c>
       <c r="E4" t="n">
-        <v>6.013111459383558</v>
+        <v>2.868031295224858</v>
       </c>
       <c r="F4" t="n">
-        <v>6.368638842581963</v>
+        <v>3.037523450073344</v>
       </c>
       <c r="G4" t="n">
-        <v>6.497692417753909</v>
+        <v>3.099103925900546</v>
       </c>
       <c r="H4" t="n">
-        <v>7.265880724451055</v>
+        <v>3.46550004419826</v>
       </c>
       <c r="I4" t="n">
-        <v>6.922536443827759</v>
+        <v>3.301755408891039</v>
       </c>
       <c r="J4" t="n">
-        <v>7.728359470404052</v>
+        <v>3.686117445489738</v>
       </c>
       <c r="K4" t="n">
-        <v>7.109343129327756</v>
+        <v>3.390839105160595</v>
       </c>
       <c r="L4" t="n">
-        <v>7.657885542589616</v>
+        <v>3.652420120571584</v>
       </c>
       <c r="M4" t="n">
-        <v>7.740408144251342</v>
+        <v>3.69178117084286</v>
       </c>
       <c r="N4" t="n">
-        <v>8.438819955345705</v>
+        <v>4.024956067564142</v>
       </c>
       <c r="O4" t="n">
-        <v>8.512973370467606</v>
+        <v>4.060230564152307</v>
       </c>
       <c r="P4" t="n">
-        <v>9.205341212720151</v>
+        <v>4.39052979668959</v>
       </c>
       <c r="Q4" t="n">
-        <v>9.479780122516479</v>
+        <v>4.521312210638275</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.997294788224842</v>
+        <v>2.860485374660796</v>
       </c>
       <c r="B5" t="n">
-        <v>5.914793482203167</v>
+        <v>2.821143368523189</v>
       </c>
       <c r="C5" t="n">
-        <v>5.891350975440138</v>
+        <v>2.80996636647293</v>
       </c>
       <c r="D5" t="n">
-        <v>5.874567349125382</v>
+        <v>2.801956403851803</v>
       </c>
       <c r="E5" t="n">
-        <v>5.948574356721935</v>
+        <v>2.83724645314913</v>
       </c>
       <c r="F5" t="n">
-        <v>6.347769115332528</v>
+        <v>3.027577016460321</v>
       </c>
       <c r="G5" t="n">
-        <v>6.449256149947925</v>
+        <v>3.07603195796071</v>
       </c>
       <c r="H5" t="n">
-        <v>7.256260419058266</v>
+        <v>3.460839309885032</v>
       </c>
       <c r="I5" t="n">
-        <v>6.970341162808496</v>
+        <v>3.324417610554767</v>
       </c>
       <c r="J5" t="n">
-        <v>7.752173985379212</v>
+        <v>3.697231601898891</v>
       </c>
       <c r="K5" t="n">
-        <v>7.140620435163095</v>
+        <v>3.405786210872836</v>
       </c>
       <c r="L5" t="n">
-        <v>7.651477551400688</v>
+        <v>3.649337192732822</v>
       </c>
       <c r="M5" t="n">
-        <v>7.721560837317948</v>
+        <v>3.68277393042194</v>
       </c>
       <c r="N5" t="n">
-        <v>8.47500989914518</v>
+        <v>4.042058651805471</v>
       </c>
       <c r="O5" t="n">
-        <v>8.461837880285229</v>
+        <v>4.035762978616771</v>
       </c>
       <c r="P5" t="n">
-        <v>9.248529436231204</v>
+        <v>4.411070164460377</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.45181162675398</v>
+        <v>4.507849595145523</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.049661432597635</v>
+        <v>2.885397640717501</v>
       </c>
       <c r="B6" t="n">
-        <v>5.971391969547235</v>
+        <v>2.848065425486415</v>
       </c>
       <c r="C6" t="n">
-        <v>5.943685010864104</v>
+        <v>2.83484435308903</v>
       </c>
       <c r="D6" t="n">
-        <v>5.878168308760161</v>
+        <v>2.803584994682719</v>
       </c>
       <c r="E6" t="n">
-        <v>5.969527270065318</v>
+        <v>2.847163685757194</v>
       </c>
       <c r="F6" t="n">
-        <v>6.280522807963238</v>
+        <v>2.9955130434065</v>
       </c>
       <c r="G6" t="n">
-        <v>6.407078803850518</v>
+        <v>3.055857872360821</v>
       </c>
       <c r="H6" t="n">
-        <v>7.127799128875224</v>
+        <v>3.399620672597539</v>
       </c>
       <c r="I6" t="n">
-        <v>6.906559389879913</v>
+        <v>3.294107284809622</v>
       </c>
       <c r="J6" t="n">
-        <v>7.485891305722205</v>
+        <v>3.570461469512008</v>
       </c>
       <c r="K6" t="n">
-        <v>7.197930329982597</v>
+        <v>3.433038048750761</v>
       </c>
       <c r="L6" t="n">
-        <v>7.601177249601538</v>
+        <v>3.625352375985792</v>
       </c>
       <c r="M6" t="n">
-        <v>7.676826017948231</v>
+        <v>3.661423869567998</v>
       </c>
       <c r="N6" t="n">
-        <v>8.414906948035311</v>
+        <v>4.013452141219234</v>
       </c>
       <c r="O6" t="n">
-        <v>8.3920840113</v>
+        <v>4.002560166369552</v>
       </c>
       <c r="P6" t="n">
-        <v>9.264043975496705</v>
+        <v>4.418381842180312</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.338707820491065</v>
+        <v>4.454036904039626</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.980527133640123</v>
+        <v>2.85239987030945</v>
       </c>
       <c r="B7" t="n">
-        <v>5.902145202990707</v>
+        <v>2.815003539828346</v>
       </c>
       <c r="C7" t="n">
-        <v>5.888350286659279</v>
+        <v>2.808423474243523</v>
       </c>
       <c r="D7" t="n">
-        <v>5.870747443691333</v>
+        <v>2.800006284564111</v>
       </c>
       <c r="E7" t="n">
-        <v>5.917982504300721</v>
+        <v>2.822537716509979</v>
       </c>
       <c r="F7" t="n">
-        <v>6.27405625376417</v>
+        <v>2.992327594648154</v>
       </c>
       <c r="G7" t="n">
-        <v>6.355361676499263</v>
+        <v>3.031150648143284</v>
       </c>
       <c r="H7" t="n">
-        <v>6.905396115542157</v>
+        <v>3.293546117670845</v>
       </c>
       <c r="I7" t="n">
-        <v>7.065595229776629</v>
+        <v>3.369971813095159</v>
       </c>
       <c r="J7" t="n">
-        <v>7.467413345045935</v>
+        <v>3.56158182478667</v>
       </c>
       <c r="K7" t="n">
-        <v>7.252888387554029</v>
+        <v>3.459299591677904</v>
       </c>
       <c r="L7" t="n">
-        <v>7.530608822384379</v>
+        <v>3.591765507042918</v>
       </c>
       <c r="M7" t="n">
-        <v>7.594028569432105</v>
+        <v>3.62202980946503</v>
       </c>
       <c r="N7" t="n">
-        <v>8.398825412353467</v>
+        <v>4.005813539204651</v>
       </c>
       <c r="O7" t="n">
-        <v>8.385337951825269</v>
+        <v>3.999380748253534</v>
       </c>
       <c r="P7" t="n">
-        <v>9.303895438407352</v>
+        <v>4.43749294771925</v>
       </c>
       <c r="Q7" t="n">
-        <v>9.337438067953057</v>
+        <v>4.453427491762222</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.106983971703419</v>
+        <v>2.912746921079364</v>
       </c>
       <c r="B8" t="n">
-        <v>6.019956676682273</v>
+        <v>2.871245944988163</v>
       </c>
       <c r="C8" t="n">
-        <v>5.99204208550865</v>
+        <v>2.857940126195952</v>
       </c>
       <c r="D8" t="n">
-        <v>5.871008315281951</v>
+        <v>2.800220848470113</v>
       </c>
       <c r="E8" t="n">
-        <v>5.982959495027135</v>
+        <v>2.853612029417473</v>
       </c>
       <c r="F8" t="n">
-        <v>6.229077865511378</v>
+        <v>2.970925797231078</v>
       </c>
       <c r="G8" t="n">
-        <v>6.440613447531203</v>
+        <v>3.071823521822117</v>
       </c>
       <c r="H8" t="n">
-        <v>6.894964579361197</v>
+        <v>3.288475299679281</v>
       </c>
       <c r="I8" t="n">
-        <v>7.259829435232971</v>
+        <v>3.462511384821159</v>
       </c>
       <c r="J8" t="n">
-        <v>7.465404234504926</v>
+        <v>3.560513131485619</v>
       </c>
       <c r="K8" t="n">
-        <v>7.74459539947626</v>
+        <v>3.693761760744422</v>
       </c>
       <c r="L8" t="n">
-        <v>7.550410440187535</v>
+        <v>3.601132681590179</v>
       </c>
       <c r="M8" t="n">
-        <v>7.67367559419827</v>
+        <v>3.659918430801474</v>
       </c>
       <c r="N8" t="n">
-        <v>8.37896390056267</v>
+        <v>3.996310199101656</v>
       </c>
       <c r="O8" t="n">
-        <v>8.376644006774676</v>
+        <v>3.995149141752311</v>
       </c>
       <c r="P8" t="n">
-        <v>9.299162482406141</v>
+        <v>4.435223839192605</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.301156952194615</v>
+        <v>4.436135418390888</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.926201290382689</v>
+        <v>2.826643314326759</v>
       </c>
       <c r="B9" t="n">
-        <v>5.852838475897661</v>
+        <v>2.791653527536945</v>
       </c>
       <c r="C9" t="n">
-        <v>5.816634556834403</v>
+        <v>2.774389385561658</v>
       </c>
       <c r="D9" t="n">
-        <v>5.787818228402394</v>
+        <v>2.760633807812634</v>
       </c>
       <c r="E9" t="n">
-        <v>5.917776868276484</v>
+        <v>2.822623732513716</v>
       </c>
       <c r="F9" t="n">
-        <v>6.262084111123312</v>
+        <v>2.98678765616388</v>
       </c>
       <c r="G9" t="n">
-        <v>6.46490312147499</v>
+        <v>3.083543916486395</v>
       </c>
       <c r="H9" t="n">
-        <v>6.953788461090537</v>
+        <v>3.316669822173815</v>
       </c>
       <c r="I9" t="n">
-        <v>7.361503472187561</v>
+        <v>3.511126931848822</v>
       </c>
       <c r="J9" t="n">
-        <v>7.587902079985093</v>
+        <v>3.619047180730257</v>
       </c>
       <c r="K9" t="n">
-        <v>7.918986061338098</v>
+        <v>3.777020808731355</v>
       </c>
       <c r="L9" t="n">
-        <v>7.622510822510822</v>
+        <v>3.635605737553111</v>
       </c>
       <c r="M9" t="n">
-        <v>7.735359081093132</v>
+        <v>3.689428268128071</v>
       </c>
       <c r="N9" t="n">
-        <v>8.434539531695565</v>
+        <v>4.022772975041234</v>
       </c>
       <c r="O9" t="n">
-        <v>8.363560497918684</v>
+        <v>3.988876004121785</v>
       </c>
       <c r="P9" t="n">
-        <v>9.409603668173999</v>
+        <v>4.487852302586527</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.411721253381515</v>
+        <v>4.488815300945716</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.92815183791356</v>
+        <v>2.827418410567082</v>
       </c>
       <c r="B10" t="n">
-        <v>5.853856008198822</v>
+        <v>2.79198521286501</v>
       </c>
       <c r="C10" t="n">
-        <v>5.821613078184946</v>
+        <v>2.776602631296209</v>
       </c>
       <c r="D10" t="n">
-        <v>5.818203113821869</v>
+        <v>2.774972770856381</v>
       </c>
       <c r="E10" t="n">
-        <v>5.928204411524934</v>
+        <v>2.827455864029964</v>
       </c>
       <c r="F10" t="n">
-        <v>6.321540207166648</v>
+        <v>3.015007253434411</v>
       </c>
       <c r="G10" t="n">
-        <v>6.464803298162253</v>
+        <v>3.083399181070512</v>
       </c>
       <c r="H10" t="n">
-        <v>7.151768702729502</v>
+        <v>3.410988433386715</v>
       </c>
       <c r="I10" t="n">
-        <v>7.418933820471099</v>
+        <v>3.538438441345576</v>
       </c>
       <c r="J10" t="n">
-        <v>7.760284296794674</v>
+        <v>3.70119500351761</v>
       </c>
       <c r="K10" t="n">
-        <v>8.049592887256223</v>
+        <v>3.839181813233229</v>
       </c>
       <c r="L10" t="n">
-        <v>7.664364075586213</v>
+        <v>3.655440202769239</v>
       </c>
       <c r="M10" t="n">
-        <v>7.764972665049529</v>
+        <v>3.70345332036851</v>
       </c>
       <c r="N10" t="n">
-        <v>8.544727831737823</v>
+        <v>4.075197666204899</v>
       </c>
       <c r="O10" t="n">
-        <v>8.462635135809617</v>
+        <v>4.036097203162659</v>
       </c>
       <c r="P10" t="n">
-        <v>9.517078770576081</v>
+        <v>4.538921686237424</v>
       </c>
       <c r="Q10" t="n">
-        <v>9.548822584026274</v>
+        <v>4.554020827616787</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.993994629505774</v>
+        <v>2.858808221289024</v>
       </c>
       <c r="B11" t="n">
-        <v>5.907254160136558</v>
+        <v>2.817430079859987</v>
       </c>
       <c r="C11" t="n">
-        <v>5.883415687566341</v>
+        <v>2.806058510244077</v>
       </c>
       <c r="D11" t="n">
-        <v>5.870420688714309</v>
+        <v>2.799858375125949</v>
       </c>
       <c r="E11" t="n">
-        <v>5.954597695412454</v>
+        <v>2.840013883173444</v>
       </c>
       <c r="F11" t="n">
-        <v>6.390723086803026</v>
+        <v>3.04801549811598</v>
       </c>
       <c r="G11" t="n">
-        <v>6.509048317810808</v>
+        <v>3.104433426707779</v>
       </c>
       <c r="H11" t="n">
-        <v>7.11101217511671</v>
+        <v>3.391559608217734</v>
       </c>
       <c r="I11" t="n">
-        <v>7.395141266624741</v>
+        <v>3.527068458740805</v>
       </c>
       <c r="J11" t="n">
-        <v>7.726228575421504</v>
+        <v>3.684974797469606</v>
       </c>
       <c r="K11" t="n">
-        <v>8.025567412346813</v>
+        <v>3.827819765684153</v>
       </c>
       <c r="L11" t="n">
-        <v>7.778649124383175</v>
+        <v>3.709985775619161</v>
       </c>
       <c r="M11" t="n">
-        <v>7.853646379242075</v>
+        <v>3.745746849822564</v>
       </c>
       <c r="N11" t="n">
-        <v>8.642910049212894</v>
+        <v>4.122167165279117</v>
       </c>
       <c r="O11" t="n">
-        <v>8.553982118317245</v>
+        <v>4.079750801162898</v>
       </c>
       <c r="P11" t="n">
-        <v>9.533890347418403</v>
+        <v>4.547157956646982</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.619006358745022</v>
+        <v>4.587681016474287</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.071667814634763</v>
+        <v>2.896005223171061</v>
       </c>
       <c r="B12" t="n">
-        <v>5.984627209838585</v>
+        <v>2.854505516688771</v>
       </c>
       <c r="C12" t="n">
-        <v>5.96581317734277</v>
+        <v>2.845523985848304</v>
       </c>
       <c r="D12" t="n">
-        <v>5.947649992845996</v>
+        <v>2.836856683213374</v>
       </c>
       <c r="E12" t="n">
-        <v>6.020436494072159</v>
+        <v>2.871592865623164</v>
       </c>
       <c r="F12" t="n">
-        <v>6.473839969919909</v>
+        <v>3.087785679858909</v>
       </c>
       <c r="G12" t="n">
-        <v>6.564651899471269</v>
+        <v>3.131100609682069</v>
       </c>
       <c r="H12" t="n">
-        <v>7.172600497120097</v>
+        <v>3.42101009132773</v>
       </c>
       <c r="I12" t="n">
-        <v>7.462920630484043</v>
+        <v>3.559482526451905</v>
       </c>
       <c r="J12" t="n">
-        <v>7.756799132202668</v>
+        <v>3.699560699446593</v>
       </c>
       <c r="K12" t="n">
-        <v>8.089774432587653</v>
+        <v>3.858427814718989</v>
       </c>
       <c r="L12" t="n">
-        <v>7.893977659542609</v>
+        <v>3.765041731251408</v>
       </c>
       <c r="M12" t="n">
-        <v>7.956887642206627</v>
+        <v>3.795033702562055</v>
       </c>
       <c r="N12" t="n">
-        <v>8.706595991761249</v>
+        <v>4.152623496049056</v>
       </c>
       <c r="O12" t="n">
-        <v>8.56345734716219</v>
+        <v>4.084273782909255</v>
       </c>
       <c r="P12" t="n">
-        <v>9.579732540070742</v>
+        <v>4.569064741008511</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.647294289108279</v>
+        <v>4.601246152886622</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6.39946827448749</v>
+        <v>3.052143631490935</v>
       </c>
       <c r="B13" t="n">
-        <v>6.302443341951412</v>
+        <v>3.005863212653303</v>
       </c>
       <c r="C13" t="n">
-        <v>6.273159174927046</v>
+        <v>2.991903227869566</v>
       </c>
       <c r="D13" t="n">
-        <v>6.142946318349854</v>
+        <v>2.929797133953103</v>
       </c>
       <c r="E13" t="n">
-        <v>6.236594560960433</v>
+        <v>2.974460705842248</v>
       </c>
       <c r="F13" t="n">
-        <v>6.522817280080924</v>
+        <v>3.11092208045099</v>
       </c>
       <c r="G13" t="n">
-        <v>6.74229879779457</v>
+        <v>3.215676876914431</v>
       </c>
       <c r="H13" t="n">
-        <v>6.949856088057472</v>
+        <v>3.314696215121264</v>
       </c>
       <c r="I13" t="n">
-        <v>7.652021255710725</v>
+        <v>3.649598732168541</v>
       </c>
       <c r="J13" t="n">
-        <v>7.427547241382753</v>
+        <v>3.542365341708097</v>
       </c>
       <c r="K13" t="n">
-        <v>8.149633149325693</v>
+        <v>3.886857532264333</v>
       </c>
       <c r="L13" t="n">
-        <v>8.000392638363429</v>
+        <v>3.815694683179412</v>
       </c>
       <c r="M13" t="n">
-        <v>8.093796646602181</v>
+        <v>3.860280174120514</v>
       </c>
       <c r="N13" t="n">
-        <v>8.782864330135659</v>
+        <v>4.188765135523609</v>
       </c>
       <c r="O13" t="n">
-        <v>8.601826766623077</v>
+        <v>4.10245585212738</v>
       </c>
       <c r="P13" t="n">
-        <v>9.565102435356087</v>
+        <v>4.561821939572011</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.67001607155335</v>
+        <v>4.611803585788189</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6.317206544416383</v>
+        <v>3.012943186746933</v>
       </c>
       <c r="B14" t="n">
-        <v>6.240414466394482</v>
+        <v>2.976325126528431</v>
       </c>
       <c r="C14" t="n">
-        <v>6.207695046434478</v>
+        <v>2.96071877638902</v>
       </c>
       <c r="D14" t="n">
-        <v>6.159795828051016</v>
+        <v>2.937872798835388</v>
       </c>
       <c r="E14" t="n">
-        <v>6.271209292884927</v>
+        <v>2.991035132776493</v>
       </c>
       <c r="F14" t="n">
-        <v>6.684404603851183</v>
+        <v>3.188057169854469</v>
       </c>
       <c r="G14" t="n">
-        <v>6.768746651759718</v>
+        <v>3.228339003988635</v>
       </c>
       <c r="H14" t="n">
-        <v>7.242957298914255</v>
+        <v>3.454417310609661</v>
       </c>
       <c r="I14" t="n">
-        <v>7.620865734316926</v>
+        <v>3.634697332377106</v>
       </c>
       <c r="J14" t="n">
-        <v>7.711175885349598</v>
+        <v>3.677748818351181</v>
       </c>
       <c r="K14" t="n">
-        <v>8.110445178700367</v>
+        <v>3.868145401325757</v>
       </c>
       <c r="L14" t="n">
-        <v>8.107554961052271</v>
+        <v>3.866876427218955</v>
       </c>
       <c r="M14" t="n">
-        <v>8.12972704978854</v>
+        <v>3.877453856460873</v>
       </c>
       <c r="N14" t="n">
-        <v>8.853440077729086</v>
+        <v>4.222699877308169</v>
       </c>
       <c r="O14" t="n">
-        <v>8.543508656344937</v>
+        <v>4.074871694116934</v>
       </c>
       <c r="P14" t="n">
-        <v>9.538609993644583</v>
+        <v>4.54949498925038</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.619576682605123</v>
+        <v>4.588035872164983</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6.39761488831435</v>
+        <v>3.051320607514212</v>
       </c>
       <c r="B15" t="n">
-        <v>6.318984730360595</v>
+        <v>3.013821756113524</v>
       </c>
       <c r="C15" t="n">
-        <v>6.285497336381272</v>
+        <v>2.997841506149748</v>
       </c>
       <c r="D15" t="n">
-        <v>6.227826746658415</v>
+        <v>2.970325907020509</v>
       </c>
       <c r="E15" t="n">
-        <v>6.341486901517647</v>
+        <v>3.024562647502766</v>
       </c>
       <c r="F15" t="n">
-        <v>6.74462068804882</v>
+        <v>3.216771279795936</v>
       </c>
       <c r="G15" t="n">
-        <v>6.873778744954763</v>
+        <v>3.278448245900393</v>
       </c>
       <c r="H15" t="n">
-        <v>7.309064289540846</v>
+        <v>3.486062312722767</v>
       </c>
       <c r="I15" t="n">
-        <v>7.770405049728647</v>
+        <v>3.706085854446004</v>
       </c>
       <c r="J15" t="n">
-        <v>7.66640180214354</v>
+        <v>3.65653079682401</v>
       </c>
       <c r="K15" t="n">
-        <v>7.954947077007031</v>
+        <v>3.794315421320511</v>
       </c>
       <c r="L15" t="n">
-        <v>8.179767145485824</v>
+        <v>3.901262197569238</v>
       </c>
       <c r="M15" t="n">
-        <v>8.231522205695919</v>
+        <v>3.925991957344949</v>
       </c>
       <c r="N15" t="n">
-        <v>8.905446692687278</v>
+        <v>4.247311246052905</v>
       </c>
       <c r="O15" t="n">
-        <v>8.606063933504364</v>
+        <v>4.104609743645329</v>
       </c>
       <c r="P15" t="n">
-        <v>9.609442619896118</v>
+        <v>4.583203423246507</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.601398191867062</v>
+        <v>4.579310484922362</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6.413518073010771</v>
+        <v>3.058914138412446</v>
       </c>
       <c r="B16" t="n">
-        <v>6.341942761312477</v>
+        <v>3.024764832721885</v>
       </c>
       <c r="C16" t="n">
-        <v>6.30527499658937</v>
+        <v>3.007264543489104</v>
       </c>
       <c r="D16" t="n">
-        <v>6.27050121285325</v>
+        <v>2.9906129878135</v>
       </c>
       <c r="E16" t="n">
-        <v>6.389255018617048</v>
+        <v>3.047294995058841</v>
       </c>
       <c r="F16" t="n">
-        <v>6.777736073816012</v>
+        <v>3.232602668114867</v>
       </c>
       <c r="G16" t="n">
-        <v>6.928328192432727</v>
+        <v>3.30445078860964</v>
       </c>
       <c r="H16" t="n">
-        <v>7.243659389547168</v>
+        <v>3.455070524394503</v>
       </c>
       <c r="I16" t="n">
-        <v>7.86961877476866</v>
+        <v>3.753438775411421</v>
       </c>
       <c r="J16" t="n">
-        <v>7.57665864752721</v>
+        <v>3.613918278131002</v>
       </c>
       <c r="K16" t="n">
-        <v>8.205100971280833</v>
+        <v>3.913400610967548</v>
       </c>
       <c r="L16" t="n">
-        <v>8.238561080221341</v>
+        <v>3.92938593936697</v>
       </c>
       <c r="M16" t="n">
-        <v>8.286552801541273</v>
+        <v>3.952294445159481</v>
       </c>
       <c r="N16" t="n">
-        <v>8.912301226828513</v>
+        <v>4.250682692516751</v>
       </c>
       <c r="O16" t="n">
-        <v>8.62381850790767</v>
+        <v>4.113007254386618</v>
       </c>
       <c r="P16" t="n">
-        <v>9.552603225623979</v>
+        <v>4.556057280310445</v>
       </c>
       <c r="Q16" t="n">
-        <v>9.633429496457936</v>
+        <v>4.594616572554261</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6.616281182307316</v>
+        <v>3.155673890159468</v>
       </c>
       <c r="B17" t="n">
-        <v>6.549557949096766</v>
+        <v>3.123863204083443</v>
       </c>
       <c r="C17" t="n">
-        <v>6.490004691695699</v>
+        <v>3.09544046938711</v>
       </c>
       <c r="D17" t="n">
-        <v>6.397324735218663</v>
+        <v>3.051229195672601</v>
       </c>
       <c r="E17" t="n">
-        <v>6.564312500207965</v>
+        <v>3.130915881585481</v>
       </c>
       <c r="F17" t="n">
-        <v>6.839858783286916</v>
+        <v>3.262336908816529</v>
       </c>
       <c r="G17" t="n">
-        <v>7.040786474606613</v>
+        <v>3.358179685527395</v>
       </c>
       <c r="H17" t="n">
-        <v>7.236489413737685</v>
+        <v>3.451558468743736</v>
       </c>
       <c r="I17" t="n">
-        <v>7.950684621553184</v>
+        <v>3.792068213547584</v>
       </c>
       <c r="J17" t="n">
-        <v>7.390962662753592</v>
+        <v>3.525122465682074</v>
       </c>
       <c r="K17" t="n">
-        <v>8.092066375848082</v>
+        <v>3.859559988465603</v>
       </c>
       <c r="L17" t="n">
-        <v>8.301190226632194</v>
+        <v>3.95919445218994</v>
       </c>
       <c r="M17" t="n">
-        <v>8.362025215368798</v>
+        <v>3.988214855281248</v>
       </c>
       <c r="N17" t="n">
-        <v>8.968741327849706</v>
+        <v>4.277644107356225</v>
       </c>
       <c r="O17" t="n">
-        <v>8.681552984550679</v>
+        <v>4.140666954127284</v>
       </c>
       <c r="P17" t="n">
-        <v>9.57929265200595</v>
+        <v>4.568956189446598</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.719126479464681</v>
+        <v>4.635519880250487</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6.594459806143127</v>
+        <v>3.145149467089595</v>
       </c>
       <c r="B18" t="n">
-        <v>6.524935530777191</v>
+        <v>3.111989504143131</v>
       </c>
       <c r="C18" t="n">
-        <v>6.525380077263244</v>
+        <v>3.112208511680322</v>
       </c>
       <c r="D18" t="n">
-        <v>6.578042198641738</v>
+        <v>3.137326771782878</v>
       </c>
       <c r="E18" t="n">
-        <v>6.610464810618539</v>
+        <v>3.152806795835619</v>
       </c>
       <c r="F18" t="n">
-        <v>7.032715427027495</v>
+        <v>3.354159786312124</v>
       </c>
       <c r="G18" t="n">
-        <v>7.062183934436049</v>
+        <v>3.368263554305061</v>
       </c>
       <c r="H18" t="n">
-        <v>7.052066508945833</v>
+        <v>3.363468876251695</v>
       </c>
       <c r="I18" t="n">
-        <v>7.69125048663865</v>
+        <v>3.668309593498206</v>
       </c>
       <c r="J18" t="n">
-        <v>6.715377781327051</v>
+        <v>3.202871601435483</v>
       </c>
       <c r="K18" t="n">
-        <v>7.733360618372148</v>
+        <v>3.688258958320803</v>
       </c>
       <c r="L18" t="n">
-        <v>8.362021887925039</v>
+        <v>3.988158357684697</v>
       </c>
       <c r="M18" t="n">
-        <v>8.354573737817397</v>
+        <v>3.984623766475754</v>
       </c>
       <c r="N18" t="n">
-        <v>8.979376503588648</v>
+        <v>4.282654936326733</v>
       </c>
       <c r="O18" t="n">
-        <v>8.826643507658112</v>
+        <v>4.209800015965332</v>
       </c>
       <c r="P18" t="n">
-        <v>9.56171842505432</v>
+        <v>4.560529160298123</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.84654761072901</v>
+        <v>4.696208773219758</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6.771329413604587</v>
+        <v>3.229472447344161</v>
       </c>
       <c r="B19" t="n">
-        <v>6.691396228675245</v>
+        <v>3.191355613805918</v>
       </c>
       <c r="C19" t="n">
-        <v>6.697420232854514</v>
+        <v>3.194216042682982</v>
       </c>
       <c r="D19" t="n">
-        <v>6.721556844385438</v>
+        <v>3.205793606344744</v>
       </c>
       <c r="E19" t="n">
-        <v>6.789662297733012</v>
+        <v>3.238252427769965</v>
       </c>
       <c r="F19" t="n">
-        <v>7.115310566963142</v>
+        <v>3.393645575658931</v>
       </c>
       <c r="G19" t="n">
-        <v>7.215017419168072</v>
+        <v>3.441188937961037</v>
       </c>
       <c r="H19" t="n">
-        <v>6.999099593719117</v>
+        <v>3.338173188303792</v>
       </c>
       <c r="I19" t="n">
-        <v>7.391223534344211</v>
+        <v>3.525246252550922</v>
       </c>
       <c r="J19" t="n">
-        <v>6.798754205057049</v>
+        <v>3.242369134664719</v>
       </c>
       <c r="K19" t="n">
-        <v>7.045997917020207</v>
+        <v>3.360309137073802</v>
       </c>
       <c r="L19" t="n">
-        <v>8.415199763086004</v>
+        <v>4.013617190377698</v>
       </c>
       <c r="M19" t="n">
-        <v>8.485378213894739</v>
+        <v>4.047075828820535</v>
       </c>
       <c r="N19" t="n">
-        <v>8.987553363879266</v>
+        <v>4.286651347777145</v>
       </c>
       <c r="O19" t="n">
-        <v>9.170500880108873</v>
+        <v>4.373840470148876</v>
       </c>
       <c r="P19" t="n">
-        <v>9.547369822081583</v>
+        <v>4.55367327217733</v>
       </c>
       <c r="Q19" t="n">
-        <v>10.10283398384859</v>
+        <v>4.818536861428377</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7.202256006867844</v>
+        <v>3.4350103861944</v>
       </c>
       <c r="B20" t="n">
-        <v>7.108897917352952</v>
+        <v>3.390480440643165</v>
       </c>
       <c r="C20" t="n">
-        <v>7.113360019432272</v>
+        <v>3.392606083362839</v>
       </c>
       <c r="D20" t="n">
-        <v>7.007004269110341</v>
+        <v>3.341901394871701</v>
       </c>
       <c r="E20" t="n">
-        <v>7.072466401136655</v>
+        <v>3.373115047357206</v>
       </c>
       <c r="F20" t="n">
-        <v>7.329446213535376</v>
+        <v>3.495641194555981</v>
       </c>
       <c r="G20" t="n">
-        <v>7.474577996945406</v>
+        <v>3.564954223457199</v>
       </c>
       <c r="H20" t="n">
-        <v>7.281990876149216</v>
+        <v>3.472947887473927</v>
       </c>
       <c r="I20" t="n">
-        <v>7.8188705990397</v>
+        <v>3.729138460849943</v>
       </c>
       <c r="J20" t="n">
-        <v>6.946487383996992</v>
+        <v>3.31293082393016</v>
       </c>
       <c r="K20" t="n">
-        <v>7.905384136744629</v>
+        <v>3.77003002466374</v>
       </c>
       <c r="L20" t="n">
-        <v>8.625148819922071</v>
+        <v>4.113665546607105</v>
       </c>
       <c r="M20" t="n">
-        <v>8.704087764656558</v>
+        <v>4.151346904288786</v>
       </c>
       <c r="N20" t="n">
-        <v>9.151141146836766</v>
+        <v>4.36454947213629</v>
       </c>
       <c r="O20" t="n">
-        <v>9.34716218959109</v>
+        <v>4.458086004259855</v>
       </c>
       <c r="P20" t="n">
-        <v>9.613463502933142</v>
+        <v>4.585285581860971</v>
       </c>
       <c r="Q20" t="n">
-        <v>10.31129700430238</v>
+        <v>4.917943112950915</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>7.625751752730999</v>
+        <v>3.637225441121648</v>
       </c>
       <c r="B21" t="n">
-        <v>7.571590950683956</v>
+        <v>3.611410165726812</v>
       </c>
       <c r="C21" t="n">
-        <v>7.539346024203826</v>
+        <v>3.59602758415801</v>
       </c>
       <c r="D21" t="n">
-        <v>7.483259963198472</v>
+        <v>3.569271211157704</v>
       </c>
       <c r="E21" t="n">
-        <v>7.614373226056546</v>
+        <v>3.631824207410929</v>
       </c>
       <c r="F21" t="n">
-        <v>7.80452133057821</v>
+        <v>3.722425403731666</v>
       </c>
       <c r="G21" t="n">
-        <v>7.909557416705765</v>
+        <v>3.772619392038251</v>
       </c>
       <c r="H21" t="n">
-        <v>7.808644033394225</v>
+        <v>3.724222535145552</v>
       </c>
       <c r="I21" t="n">
-        <v>8.1626600916378</v>
+        <v>3.893250965339201</v>
       </c>
       <c r="J21" t="n">
-        <v>7.413355028266635</v>
+        <v>3.535780832492085</v>
       </c>
       <c r="K21" t="n">
-        <v>7.910079825375751</v>
+        <v>3.772612409189239</v>
       </c>
       <c r="L21" t="n">
-        <v>9.198576519560378</v>
+        <v>4.387255475307455</v>
       </c>
       <c r="M21" t="n">
-        <v>9.228059002232715</v>
+        <v>4.401346229809052</v>
       </c>
       <c r="N21" t="n">
-        <v>9.403806595659017</v>
+        <v>4.485136926527574</v>
       </c>
       <c r="O21" t="n">
-        <v>9.318415071989246</v>
+        <v>4.44443072561482</v>
       </c>
       <c r="P21" t="n">
-        <v>9.669158922041321</v>
+        <v>4.611682020734936</v>
       </c>
       <c r="Q21" t="n">
-        <v>10.44606047296286</v>
+        <v>4.98221865109449</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>7.958211299333513</v>
+        <v>3.795585665036224</v>
       </c>
       <c r="B22" t="n">
-        <v>7.877136801195218</v>
+        <v>3.756881319974297</v>
       </c>
       <c r="C22" t="n">
-        <v>7.906878824480669</v>
+        <v>3.771107922629398</v>
       </c>
       <c r="D22" t="n">
-        <v>7.844774083206058</v>
+        <v>3.741412087597302</v>
       </c>
       <c r="E22" t="n">
-        <v>7.964889478955582</v>
+        <v>3.798817137117604</v>
       </c>
       <c r="F22" t="n">
-        <v>8.194793216007666</v>
+        <v>3.908451358029237</v>
       </c>
       <c r="G22" t="n">
-        <v>8.375714318988724</v>
+        <v>3.994836817960142</v>
       </c>
       <c r="H22" t="n">
-        <v>8.342948314816109</v>
+        <v>3.979146673632588</v>
       </c>
       <c r="I22" t="n">
-        <v>9.038576386462628</v>
+        <v>4.310987528790366</v>
       </c>
       <c r="J22" t="n">
-        <v>8.263844994359983</v>
+        <v>3.941502134609332</v>
       </c>
       <c r="K22" t="n">
-        <v>8.775909972681687</v>
+        <v>4.185628884110574</v>
       </c>
       <c r="L22" t="n">
-        <v>9.514133317361603</v>
+        <v>4.537821252713591</v>
       </c>
       <c r="M22" t="n">
-        <v>9.519972315667934</v>
+        <v>4.540626453603015</v>
       </c>
       <c r="N22" t="n">
-        <v>9.884600257544147</v>
+        <v>4.714452735872308</v>
       </c>
       <c r="O22" t="n">
-        <v>9.558725722138481</v>
+        <v>4.558893904020423</v>
       </c>
       <c r="P22" t="n">
-        <v>10.10544269975477</v>
+        <v>4.819790600228244</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.35808485647071</v>
+        <v>4.940239984650428</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>7.907584908046092</v>
+        <v>3.771663059125846</v>
       </c>
       <c r="B23" t="n">
-        <v>7.820788537621743</v>
+        <v>3.730246194625015</v>
       </c>
       <c r="C23" t="n">
-        <v>7.865690394668104</v>
+        <v>3.751672114611405</v>
       </c>
       <c r="D23" t="n">
-        <v>7.765777240950185</v>
+        <v>3.70395576809514</v>
       </c>
       <c r="E23" t="n">
-        <v>7.937952490758025</v>
+        <v>3.786111843340417</v>
       </c>
       <c r="F23" t="n">
-        <v>8.161609284899061</v>
+        <v>3.892685989373691</v>
       </c>
       <c r="G23" t="n">
-        <v>8.402990040960832</v>
+        <v>4.007908393908226</v>
       </c>
       <c r="H23" t="n">
-        <v>8.45309934748828</v>
+        <v>4.031604374627945</v>
       </c>
       <c r="I23" t="n">
-        <v>9.28590594647474</v>
+        <v>4.428925309383854</v>
       </c>
       <c r="J23" t="n">
-        <v>8.552960593083576</v>
+        <v>4.079333099831095</v>
       </c>
       <c r="K23" t="n">
-        <v>9.109283235340115</v>
+        <v>4.344518852343373</v>
       </c>
       <c r="L23" t="n">
-        <v>9.518761791628817</v>
+        <v>4.539900872110231</v>
       </c>
       <c r="M23" t="n">
-        <v>9.562165633495379</v>
+        <v>4.560647868731325</v>
       </c>
       <c r="N23" t="n">
-        <v>9.826777270897178</v>
+        <v>4.686725429457117</v>
       </c>
       <c r="O23" t="n">
-        <v>9.433368271492791</v>
+        <v>4.49915658293014</v>
       </c>
       <c r="P23" t="n">
-        <v>10.16799065653793</v>
+        <v>4.84949817914277</v>
       </c>
       <c r="Q23" t="n">
-        <v>10.40867065294429</v>
+        <v>4.964218453352903</v>
       </c>
     </row>
   </sheetData>
@@ -2967,1168 +2967,1168 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14.29020234185492</v>
+        <v>9.473292268891106</v>
       </c>
       <c r="B2" t="n">
-        <v>14.34842994566284</v>
+        <v>9.518264990550142</v>
       </c>
       <c r="C2" t="n">
-        <v>14.23686608037108</v>
+        <v>9.486223235652268</v>
       </c>
       <c r="D2" t="n">
-        <v>14.41981958599945</v>
+        <v>9.645554710383957</v>
       </c>
       <c r="E2" t="n">
-        <v>14.14077482855346</v>
+        <v>9.541444875247436</v>
       </c>
       <c r="F2" t="n">
-        <v>14.49413471488798</v>
+        <v>9.772154397774502</v>
       </c>
       <c r="G2" t="n">
-        <v>13.97295054420343</v>
+        <v>9.39673929517344</v>
       </c>
       <c r="H2" t="n">
-        <v>14.57019342430565</v>
+        <v>9.80590187224465</v>
       </c>
       <c r="I2" t="n">
-        <v>13.77959544938792</v>
+        <v>9.193587903674137</v>
       </c>
       <c r="J2" t="n">
-        <v>14.55512542799245</v>
+        <v>9.720434974361041</v>
       </c>
       <c r="K2" t="n">
-        <v>13.85251438287564</v>
+        <v>8.981603842979213</v>
       </c>
       <c r="L2" t="n">
-        <v>14.36168914354925</v>
+        <v>9.616623497318665</v>
       </c>
       <c r="M2" t="n">
-        <v>14.02452991538311</v>
+        <v>9.314393730798157</v>
       </c>
       <c r="N2" t="n">
-        <v>14.28919878481754</v>
+        <v>9.642520979890506</v>
       </c>
       <c r="O2" t="n">
-        <v>13.9333406537096</v>
+        <v>8.985201279829264</v>
       </c>
       <c r="P2" t="n">
-        <v>14.09634546852072</v>
+        <v>9.611127360341829</v>
       </c>
       <c r="Q2" t="n">
-        <v>13.85130319334777</v>
+        <v>8.698526126885032</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14.30233420179615</v>
+        <v>9.415008967406441</v>
       </c>
       <c r="B3" t="n">
-        <v>14.35952763608413</v>
+        <v>9.464052690039425</v>
       </c>
       <c r="C3" t="n">
-        <v>14.25058446549607</v>
+        <v>9.428486500803901</v>
       </c>
       <c r="D3" t="n">
-        <v>14.42760447341539</v>
+        <v>9.596858225788202</v>
       </c>
       <c r="E3" t="n">
-        <v>14.15132149428844</v>
+        <v>9.486686642904878</v>
       </c>
       <c r="F3" t="n">
-        <v>14.48963068701731</v>
+        <v>9.723784837473396</v>
       </c>
       <c r="G3" t="n">
-        <v>13.97691286423031</v>
+        <v>9.346591647592115</v>
       </c>
       <c r="H3" t="n">
-        <v>14.55488052813187</v>
+        <v>9.775394439716033</v>
       </c>
       <c r="I3" t="n">
-        <v>13.78076537861319</v>
+        <v>9.153292421244176</v>
       </c>
       <c r="J3" t="n">
-        <v>14.57467482555876</v>
+        <v>9.668823467705037</v>
       </c>
       <c r="K3" t="n">
-        <v>13.83833281757955</v>
+        <v>8.926508529470718</v>
       </c>
       <c r="L3" t="n">
-        <v>14.35500497452842</v>
+        <v>9.583354665408061</v>
       </c>
       <c r="M3" t="n">
-        <v>14.02230851393034</v>
+        <v>9.280898273696893</v>
       </c>
       <c r="N3" t="n">
-        <v>14.29297742994899</v>
+        <v>9.615793807895159</v>
       </c>
       <c r="O3" t="n">
-        <v>13.92786368128413</v>
+        <v>8.954302807755978</v>
       </c>
       <c r="P3" t="n">
-        <v>14.09719197021272</v>
+        <v>9.602857127893895</v>
       </c>
       <c r="Q3" t="n">
-        <v>13.85041010744316</v>
+        <v>8.692477710031799</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14.31055165690062</v>
+        <v>9.387090267447878</v>
       </c>
       <c r="B4" t="n">
-        <v>14.36697977912428</v>
+        <v>9.438233923220084</v>
       </c>
       <c r="C4" t="n">
-        <v>14.25915729159388</v>
+        <v>9.39628604479212</v>
       </c>
       <c r="D4" t="n">
-        <v>14.43427666363869</v>
+        <v>9.550408948965371</v>
       </c>
       <c r="E4" t="n">
-        <v>14.15996086926141</v>
+        <v>9.430969221029866</v>
       </c>
       <c r="F4" t="n">
-        <v>14.49272920264465</v>
+        <v>9.670063875611337</v>
       </c>
       <c r="G4" t="n">
-        <v>13.98296348795964</v>
+        <v>9.291341441796446</v>
       </c>
       <c r="H4" t="n">
-        <v>14.56108953818408</v>
+        <v>9.759791581001128</v>
       </c>
       <c r="I4" t="n">
-        <v>13.78225341146171</v>
+        <v>9.078647669720128</v>
       </c>
       <c r="J4" t="n">
-        <v>14.57822853549218</v>
+        <v>9.626109380299129</v>
       </c>
       <c r="K4" t="n">
-        <v>13.82262595206485</v>
+        <v>8.845450983335907</v>
       </c>
       <c r="L4" t="n">
-        <v>14.35404800170365</v>
+        <v>9.543204553198439</v>
       </c>
       <c r="M4" t="n">
-        <v>14.02403479175193</v>
+        <v>9.240961455784362</v>
       </c>
       <c r="N4" t="n">
-        <v>14.29503512116886</v>
+        <v>9.576467671868942</v>
       </c>
       <c r="O4" t="n">
-        <v>13.92779447045396</v>
+        <v>8.895855091917305</v>
       </c>
       <c r="P4" t="n">
-        <v>14.09953049768576</v>
+        <v>9.615753180409998</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.85923848122157</v>
+        <v>8.670251936431317</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14.30851126838829</v>
+        <v>9.348000278679155</v>
       </c>
       <c r="B5" t="n">
-        <v>14.36478366624408</v>
+        <v>9.392479122471713</v>
       </c>
       <c r="C5" t="n">
-        <v>14.25662311042788</v>
+        <v>9.346950946914001</v>
       </c>
       <c r="D5" t="n">
-        <v>14.43198472037826</v>
+        <v>9.487164650659967</v>
       </c>
       <c r="E5" t="n">
-        <v>14.15775810149369</v>
+        <v>9.36638294610526</v>
       </c>
       <c r="F5" t="n">
-        <v>14.49048517457434</v>
+        <v>9.609740947410735</v>
       </c>
       <c r="G5" t="n">
-        <v>13.98466314623117</v>
+        <v>9.223771585930384</v>
       </c>
       <c r="H5" t="n">
-        <v>14.55913033929944</v>
+        <v>9.699362640456437</v>
       </c>
       <c r="I5" t="n">
-        <v>13.78462787532734</v>
+        <v>9.028218168960507</v>
       </c>
       <c r="J5" t="n">
-        <v>14.58165314060779</v>
+        <v>9.603266576767776</v>
       </c>
       <c r="K5" t="n">
-        <v>13.81553317295054</v>
+        <v>8.813670133069296</v>
       </c>
       <c r="L5" t="n">
-        <v>14.35482263061049</v>
+        <v>9.489106517489736</v>
       </c>
       <c r="M5" t="n">
-        <v>14.02716658181685</v>
+        <v>9.187116707053455</v>
       </c>
       <c r="N5" t="n">
-        <v>14.29434035091222</v>
+        <v>9.561052715272902</v>
       </c>
       <c r="O5" t="n">
-        <v>13.93120310383954</v>
+        <v>8.890103128744851</v>
       </c>
       <c r="P5" t="n">
-        <v>14.10339299439991</v>
+        <v>9.615218040253902</v>
       </c>
       <c r="Q5" t="n">
-        <v>13.85858896420003</v>
+        <v>8.690707875209505</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>14.30682491989179</v>
+        <v>9.225508410920986</v>
       </c>
       <c r="B6" t="n">
-        <v>14.36301080420988</v>
+        <v>9.269424817965854</v>
       </c>
       <c r="C6" t="n">
-        <v>14.25511910584931</v>
+        <v>9.251260523272487</v>
       </c>
       <c r="D6" t="n">
-        <v>14.43011602796384</v>
+        <v>9.39363700579878</v>
       </c>
       <c r="E6" t="n">
-        <v>14.15672393197374</v>
+        <v>9.322490661629704</v>
       </c>
       <c r="F6" t="n">
-        <v>14.48840751869191</v>
+        <v>9.561547862748293</v>
       </c>
       <c r="G6" t="n">
-        <v>13.98440227464055</v>
+        <v>9.168388071199033</v>
       </c>
       <c r="H6" t="n">
-        <v>14.5575943912608</v>
+        <v>9.670439679849069</v>
       </c>
       <c r="I6" t="n">
-        <v>13.78434970102918</v>
+        <v>8.977928959985578</v>
       </c>
       <c r="J6" t="n">
-        <v>14.57872499010085</v>
+        <v>9.597121669637287</v>
       </c>
       <c r="K6" t="n">
-        <v>13.81806868509405</v>
+        <v>8.738471197255487</v>
       </c>
       <c r="L6" t="n">
-        <v>14.35899258312786</v>
+        <v>9.442507426815379</v>
       </c>
       <c r="M6" t="n">
-        <v>14.03154150486971</v>
+        <v>9.129639607227439</v>
       </c>
       <c r="N6" t="n">
-        <v>14.29512030372907</v>
+        <v>9.517778730337131</v>
       </c>
       <c r="O6" t="n">
-        <v>13.92517377575026</v>
+        <v>8.820581883982186</v>
       </c>
       <c r="P6" t="n">
-        <v>14.10544802366478</v>
+        <v>9.614592757865108</v>
       </c>
       <c r="Q6" t="n">
-        <v>13.84241492558172</v>
+        <v>8.620860340956646</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14.30811863002486</v>
+        <v>9.196980298685018</v>
       </c>
       <c r="B7" t="n">
-        <v>14.36378144018421</v>
+        <v>9.241633078898417</v>
       </c>
       <c r="C7" t="n">
-        <v>14.25579657339842</v>
+        <v>9.213833722177512</v>
       </c>
       <c r="D7" t="n">
-        <v>14.43093324815077</v>
+        <v>9.356945308263423</v>
       </c>
       <c r="E7" t="n">
-        <v>14.15654291903331</v>
+        <v>9.27083281424844</v>
       </c>
       <c r="F7" t="n">
-        <v>14.4914820767242</v>
+        <v>9.526113712839539</v>
       </c>
       <c r="G7" t="n">
-        <v>13.984379648023</v>
+        <v>9.109343639172069</v>
       </c>
       <c r="H7" t="n">
-        <v>14.56053984447528</v>
+        <v>9.634917292120981</v>
       </c>
       <c r="I7" t="n">
-        <v>13.78490072571548</v>
+        <v>8.927478510678919</v>
       </c>
       <c r="J7" t="n">
-        <v>14.58003866489647</v>
+        <v>9.586818158517973</v>
       </c>
       <c r="K7" t="n">
-        <v>13.81729671814222</v>
+        <v>8.710198911215137</v>
       </c>
       <c r="L7" t="n">
-        <v>14.36435775344307</v>
+        <v>9.410748794704714</v>
       </c>
       <c r="M7" t="n">
-        <v>14.0347425057648</v>
+        <v>9.086771897143269</v>
       </c>
       <c r="N7" t="n">
-        <v>14.29598943203863</v>
+        <v>9.475458221693712</v>
       </c>
       <c r="O7" t="n">
-        <v>13.92685080740423</v>
+        <v>8.786346244885658</v>
       </c>
       <c r="P7" t="n">
-        <v>14.10772000226266</v>
+        <v>9.596174541389489</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.84227517294389</v>
+        <v>8.6219883884743</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14.30785376550173</v>
+        <v>9.19596651596938</v>
       </c>
       <c r="B8" t="n">
-        <v>14.36362438483884</v>
+        <v>9.235959831478461</v>
       </c>
       <c r="C8" t="n">
-        <v>14.25526551337466</v>
+        <v>9.190761754237677</v>
       </c>
       <c r="D8" t="n">
-        <v>14.4313232245592</v>
+        <v>9.333554033682407</v>
       </c>
       <c r="E8" t="n">
-        <v>14.1554422006382</v>
+        <v>9.201554699592281</v>
       </c>
       <c r="F8" t="n">
-        <v>14.49073672932243</v>
+        <v>9.466960729250662</v>
       </c>
       <c r="G8" t="n">
-        <v>13.98342134422073</v>
+        <v>9.067927726877922</v>
       </c>
       <c r="H8" t="n">
-        <v>14.56695515604047</v>
+        <v>9.596265318426644</v>
       </c>
       <c r="I8" t="n">
-        <v>13.75950567495533</v>
+        <v>8.891300369948167</v>
       </c>
       <c r="J8" t="n">
-        <v>14.57987229270857</v>
+        <v>9.568606888294887</v>
       </c>
       <c r="K8" t="n">
-        <v>13.80334541195417</v>
+        <v>8.669666646723227</v>
       </c>
       <c r="L8" t="n">
-        <v>14.3620458455201</v>
+        <v>9.358408532533648</v>
       </c>
       <c r="M8" t="n">
-        <v>14.03294967906805</v>
+        <v>9.05105081562057</v>
       </c>
       <c r="N8" t="n">
-        <v>14.30148104521663</v>
+        <v>9.452014258342878</v>
       </c>
       <c r="O8" t="n">
-        <v>13.91929218616382</v>
+        <v>8.768518396553773</v>
       </c>
       <c r="P8" t="n">
-        <v>14.11450000166372</v>
+        <v>9.543648281512922</v>
       </c>
       <c r="Q8" t="n">
-        <v>13.83243126333057</v>
+        <v>8.615642883135832</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>14.30383421344221</v>
+        <v>9.17024170020947</v>
       </c>
       <c r="B9" t="n">
-        <v>14.35987369023495</v>
+        <v>9.21091362168162</v>
       </c>
       <c r="C9" t="n">
-        <v>14.25163460674606</v>
+        <v>9.161967658934801</v>
       </c>
       <c r="D9" t="n">
-        <v>14.42713330737927</v>
+        <v>9.300247113504465</v>
       </c>
       <c r="E9" t="n">
-        <v>14.1512190090207</v>
+        <v>9.1667490060946</v>
       </c>
       <c r="F9" t="n">
-        <v>14.48642036927971</v>
+        <v>9.44804609569074</v>
       </c>
       <c r="G9" t="n">
-        <v>13.98012451294542</v>
+        <v>9.03070977644885</v>
       </c>
       <c r="H9" t="n">
-        <v>14.56332957332189</v>
+        <v>9.610420188178258</v>
       </c>
       <c r="I9" t="n">
-        <v>13.77173336527679</v>
+        <v>8.862336781855639</v>
       </c>
       <c r="J9" t="n">
-        <v>14.59010351677531</v>
+        <v>9.579390311582658</v>
       </c>
       <c r="K9" t="n">
-        <v>13.80753266717909</v>
+        <v>8.624935785561785</v>
       </c>
       <c r="L9" t="n">
-        <v>14.35823126399606</v>
+        <v>9.325076854981937</v>
       </c>
       <c r="M9" t="n">
-        <v>14.02939596913463</v>
+        <v>9.012745445159005</v>
       </c>
       <c r="N9" t="n">
-        <v>14.29442020956241</v>
+        <v>9.407014874896705</v>
       </c>
       <c r="O9" t="n">
-        <v>13.9200854487557</v>
+        <v>8.718312981766987</v>
       </c>
       <c r="P9" t="n">
-        <v>14.11543567884844</v>
+        <v>9.434234020345166</v>
       </c>
       <c r="Q9" t="n">
-        <v>13.83077818927166</v>
+        <v>8.575474996401452</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>14.31093764037653</v>
+        <v>9.174218750123986</v>
       </c>
       <c r="B10" t="n">
-        <v>14.36464391360625</v>
+        <v>9.210624150849853</v>
       </c>
       <c r="C10" t="n">
-        <v>14.25820564267912</v>
+        <v>9.157720817126643</v>
       </c>
       <c r="D10" t="n">
-        <v>14.42923092792424</v>
+        <v>9.281258207823235</v>
       </c>
       <c r="E10" t="n">
-        <v>14.15270571089172</v>
+        <v>9.144711769417439</v>
       </c>
       <c r="F10" t="n">
-        <v>14.49943999121555</v>
+        <v>9.425848253486306</v>
       </c>
       <c r="G10" t="n">
-        <v>13.97156100369014</v>
+        <v>9.001621766683018</v>
       </c>
       <c r="H10" t="n">
-        <v>14.59155428225374</v>
+        <v>9.589818244375275</v>
       </c>
       <c r="I10" t="n">
-        <v>13.75662677061601</v>
+        <v>8.814236378643718</v>
       </c>
       <c r="J10" t="n">
-        <v>14.57075376583447</v>
+        <v>9.574805118999651</v>
       </c>
       <c r="K10" t="n">
-        <v>13.84516206314823</v>
+        <v>8.569202493575382</v>
       </c>
       <c r="L10" t="n">
-        <v>14.37071583297563</v>
+        <v>9.29324331594551</v>
       </c>
       <c r="M10" t="n">
-        <v>14.02952640492994</v>
+        <v>8.977838182948423</v>
       </c>
       <c r="N10" t="n">
-        <v>14.28602307249502</v>
+        <v>9.396963381146277</v>
       </c>
       <c r="O10" t="n">
-        <v>13.94935763698254</v>
+        <v>8.66078382797561</v>
       </c>
       <c r="P10" t="n">
-        <v>14.07866875630135</v>
+        <v>9.362744246965596</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.82400484475811</v>
+        <v>8.551229909827613</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14.30158885439439</v>
+        <v>9.032476437248866</v>
       </c>
       <c r="B11" t="n">
-        <v>14.35745397313422</v>
+        <v>9.075169576107738</v>
       </c>
       <c r="C11" t="n">
-        <v>14.24938392378823</v>
+        <v>9.041860116711973</v>
       </c>
       <c r="D11" t="n">
-        <v>14.42615104598194</v>
+        <v>9.233977337163532</v>
       </c>
       <c r="E11" t="n">
-        <v>14.14796610000299</v>
+        <v>9.111269635890448</v>
       </c>
       <c r="F11" t="n">
-        <v>14.50377764689832</v>
+        <v>9.403244771234725</v>
       </c>
       <c r="G11" t="n">
-        <v>13.96707960243702</v>
+        <v>8.974408334474658</v>
       </c>
       <c r="H11" t="n">
-        <v>14.57877556724597</v>
+        <v>9.580404729102753</v>
       </c>
       <c r="I11" t="n">
-        <v>13.75481264827921</v>
+        <v>8.758368508112721</v>
       </c>
       <c r="J11" t="n">
-        <v>14.54550911553217</v>
+        <v>9.57034942652559</v>
       </c>
       <c r="K11" t="n">
-        <v>13.85293097883413</v>
+        <v>8.498593193975768</v>
       </c>
       <c r="L11" t="n">
-        <v>14.37114307675414</v>
+        <v>9.252120048505409</v>
       </c>
       <c r="M11" t="n">
-        <v>14.02360222406341</v>
+        <v>8.932073860133217</v>
       </c>
       <c r="N11" t="n">
-        <v>14.286438337476</v>
+        <v>9.375888508023849</v>
       </c>
       <c r="O11" t="n">
-        <v>13.94688601175919</v>
+        <v>8.648669854548842</v>
       </c>
       <c r="P11" t="n">
-        <v>14.080421653673</v>
+        <v>9.203676850887449</v>
       </c>
       <c r="Q11" t="n">
-        <v>13.82927019176058</v>
+        <v>8.467453496209345</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>14.29579510932316</v>
+        <v>9.004755161476004</v>
       </c>
       <c r="B12" t="n">
-        <v>14.35246014554239</v>
+        <v>9.047648898542853</v>
       </c>
       <c r="C12" t="n">
-        <v>14.24441937770147</v>
+        <v>9.01246867041635</v>
       </c>
       <c r="D12" t="n">
-        <v>14.41998462720984</v>
+        <v>9.198082954024446</v>
       </c>
       <c r="E12" t="n">
-        <v>14.14557832636234</v>
+        <v>9.080831397047493</v>
       </c>
       <c r="F12" t="n">
-        <v>14.48633651769701</v>
+        <v>9.376655351806249</v>
       </c>
       <c r="G12" t="n">
-        <v>13.96592431396428</v>
+        <v>8.943069308109166</v>
       </c>
       <c r="H12" t="n">
-        <v>14.55839164678519</v>
+        <v>9.565714719195043</v>
       </c>
       <c r="I12" t="n">
-        <v>13.77197427220486</v>
+        <v>8.719893010057048</v>
       </c>
       <c r="J12" t="n">
-        <v>14.56769517953223</v>
+        <v>9.570026311057674</v>
       </c>
       <c r="K12" t="n">
-        <v>13.81064715453647</v>
+        <v>8.459906940840828</v>
       </c>
       <c r="L12" t="n">
-        <v>14.36022773025079</v>
+        <v>9.233736746274849</v>
       </c>
       <c r="M12" t="n">
-        <v>14.02213814880994</v>
+        <v>8.910042336696158</v>
       </c>
       <c r="N12" t="n">
-        <v>14.29870063321255</v>
+        <v>9.328421639658647</v>
       </c>
       <c r="O12" t="n">
-        <v>13.92264092556176</v>
+        <v>8.633418677502355</v>
       </c>
       <c r="P12" t="n">
-        <v>14.12421214450423</v>
+        <v>9.189212831365943</v>
       </c>
       <c r="Q12" t="n">
-        <v>13.83458478493067</v>
+        <v>8.375799794101175</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>14.29660168169008</v>
+        <v>9.008961375799</v>
       </c>
       <c r="B13" t="n">
-        <v>14.35331995700943</v>
+        <v>9.048056443003368</v>
       </c>
       <c r="C13" t="n">
-        <v>14.24504227517294</v>
+        <v>9.006743369031033</v>
       </c>
       <c r="D13" t="n">
-        <v>14.420897677777</v>
+        <v>9.177122980508488</v>
       </c>
       <c r="E13" t="n">
-        <v>14.14519500484143</v>
+        <v>9.056673913488531</v>
       </c>
       <c r="F13" t="n">
-        <v>14.48805747160859</v>
+        <v>9.363408252426183</v>
       </c>
       <c r="G13" t="n">
-        <v>13.96344470287591</v>
+        <v>8.911235769072739</v>
       </c>
       <c r="H13" t="n">
-        <v>14.55829581640496</v>
+        <v>9.540209545776781</v>
       </c>
       <c r="I13" t="n">
-        <v>13.77541218709551</v>
+        <v>8.680490062691701</v>
       </c>
       <c r="J13" t="n">
-        <v>14.56206514469389</v>
+        <v>9.571086434498575</v>
       </c>
       <c r="K13" t="n">
-        <v>13.80503708436068</v>
+        <v>8.419268029200371</v>
       </c>
       <c r="L13" t="n">
-        <v>14.36007466783793</v>
+        <v>9.199931504599238</v>
       </c>
       <c r="M13" t="n">
-        <v>14.01809330817786</v>
+        <v>8.867596136770524</v>
       </c>
       <c r="N13" t="n">
-        <v>14.29682528591061</v>
+        <v>9.288432767780753</v>
       </c>
       <c r="O13" t="n">
-        <v>13.9156918920178</v>
+        <v>8.594867637716462</v>
       </c>
       <c r="P13" t="n">
-        <v>14.12409634946145</v>
+        <v>9.102612807529034</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.82220270121884</v>
+        <v>8.31600184918538</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14.30961997264841</v>
+        <v>8.986129998747849</v>
       </c>
       <c r="B14" t="n">
-        <v>14.36417540952514</v>
+        <v>9.036017376502365</v>
       </c>
       <c r="C14" t="n">
-        <v>14.25661246260785</v>
+        <v>8.987802708488431</v>
       </c>
       <c r="D14" t="n">
-        <v>14.42726640512959</v>
+        <v>9.161425535929695</v>
       </c>
       <c r="E14" t="n">
-        <v>14.15029397965601</v>
+        <v>9.021154064978267</v>
       </c>
       <c r="F14" t="n">
-        <v>14.50289653979124</v>
+        <v>9.311807537445924</v>
       </c>
       <c r="G14" t="n">
-        <v>13.95983109895485</v>
+        <v>8.871620162214757</v>
       </c>
       <c r="H14" t="n">
-        <v>14.56238191733964</v>
+        <v>9.518718240931461</v>
       </c>
       <c r="I14" t="n">
-        <v>13.76353454385737</v>
+        <v>8.631653286311252</v>
       </c>
       <c r="J14" t="n">
-        <v>14.54583786697545</v>
+        <v>9.56998060513687</v>
       </c>
       <c r="K14" t="n">
-        <v>13.86945905746828</v>
+        <v>8.381222928565613</v>
       </c>
       <c r="L14" t="n">
-        <v>14.3771191657433</v>
+        <v>9.132155972089553</v>
       </c>
       <c r="M14" t="n">
-        <v>14.02559336640812</v>
+        <v>8.81048468431095</v>
       </c>
       <c r="N14" t="n">
-        <v>14.28214593502833</v>
+        <v>9.224945974173298</v>
       </c>
       <c r="O14" t="n">
-        <v>13.94816508113972</v>
+        <v>8.549854288572266</v>
       </c>
       <c r="P14" t="n">
-        <v>14.07380270254982</v>
+        <v>9.112309445588767</v>
       </c>
       <c r="Q14" t="n">
-        <v>13.85216167383731</v>
+        <v>8.337863245028331</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14.30205336554299</v>
+        <v>8.934493099913619</v>
       </c>
       <c r="B15" t="n">
-        <v>14.356937553863</v>
+        <v>8.986906999401539</v>
       </c>
       <c r="C15" t="n">
-        <v>14.24853875307373</v>
+        <v>8.941883493386051</v>
       </c>
       <c r="D15" t="n">
-        <v>14.42125704170285</v>
+        <v>9.12758728442239</v>
       </c>
       <c r="E15" t="n">
-        <v>14.14245052922993</v>
+        <v>8.988416564397024</v>
       </c>
       <c r="F15" t="n">
-        <v>14.49663961454891</v>
+        <v>9.28404753860127</v>
       </c>
       <c r="G15" t="n">
-        <v>13.95616292495616</v>
+        <v>8.846959913526938</v>
       </c>
       <c r="H15" t="n">
-        <v>14.55642313105803</v>
+        <v>9.476885896914421</v>
       </c>
       <c r="I15" t="n">
-        <v>13.76296089255351</v>
+        <v>8.611238609822678</v>
       </c>
       <c r="J15" t="n">
-        <v>14.541212720152</v>
+        <v>9.539042775187335</v>
       </c>
       <c r="K15" t="n">
-        <v>13.872928915819</v>
+        <v>8.355537470681954</v>
       </c>
       <c r="L15" t="n">
-        <v>14.37722298198855</v>
+        <v>9.093870280566112</v>
       </c>
       <c r="M15" t="n">
-        <v>14.02698823083143</v>
+        <v>8.773360050136857</v>
       </c>
       <c r="N15" t="n">
-        <v>14.28472536942944</v>
+        <v>9.148893861171123</v>
       </c>
       <c r="O15" t="n">
-        <v>13.94896366764161</v>
+        <v>8.496637361447977</v>
       </c>
       <c r="P15" t="n">
-        <v>14.06741667248969</v>
+        <v>9.070281581799394</v>
       </c>
       <c r="Q15" t="n">
-        <v>13.84770289920175</v>
+        <v>8.326923025040021</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14.29174893771358</v>
+        <v>8.91824020143615</v>
       </c>
       <c r="B16" t="n">
-        <v>14.3471442213948</v>
+        <v>8.960529604661243</v>
       </c>
       <c r="C16" t="n">
-        <v>14.23982484336059</v>
+        <v>8.926298409195905</v>
       </c>
       <c r="D16" t="n">
-        <v>14.41499745450552</v>
+        <v>9.07949703808176</v>
       </c>
       <c r="E16" t="n">
-        <v>14.14011067077939</v>
+        <v>8.968054576678268</v>
       </c>
       <c r="F16" t="n">
-        <v>14.48307296085928</v>
+        <v>9.253548358530574</v>
       </c>
       <c r="G16" t="n">
-        <v>13.95684172348277</v>
+        <v>8.823418825094391</v>
       </c>
       <c r="H16" t="n">
-        <v>14.56277854863558</v>
+        <v>9.436592318897826</v>
       </c>
       <c r="I16" t="n">
-        <v>13.78497925338817</v>
+        <v>8.609952495995573</v>
       </c>
       <c r="J16" t="n">
-        <v>14.58702496581052</v>
+        <v>9.505573979873207</v>
       </c>
       <c r="K16" t="n">
-        <v>13.8371708742193</v>
+        <v>8.335692848594535</v>
       </c>
       <c r="L16" t="n">
-        <v>14.35430221840675</v>
+        <v>9.046931569507993</v>
       </c>
       <c r="M16" t="n">
-        <v>14.01544599392409</v>
+        <v>8.729060221200786</v>
       </c>
       <c r="N16" t="n">
-        <v>14.2980897145386</v>
+        <v>9.068434935637971</v>
       </c>
       <c r="O16" t="n">
-        <v>13.93268315082304</v>
+        <v>8.392804935858564</v>
       </c>
       <c r="P16" t="n">
-        <v>14.10156689326559</v>
+        <v>9.084680216461971</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.86326868110112</v>
+        <v>8.263108037529005</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>14.29219481517714</v>
+        <v>8.884820286065105</v>
       </c>
       <c r="B17" t="n">
-        <v>14.34787093511152</v>
+        <v>8.935624321453551</v>
       </c>
       <c r="C17" t="n">
-        <v>14.23959990816255</v>
+        <v>8.907007971398251</v>
       </c>
       <c r="D17" t="n">
-        <v>14.41605158868802</v>
+        <v>9.076959724672612</v>
       </c>
       <c r="E17" t="n">
-        <v>14.14018121258705</v>
+        <v>8.959070189217751</v>
       </c>
       <c r="F17" t="n">
-        <v>14.48614485693655</v>
+        <v>9.22238390339038</v>
       </c>
       <c r="G17" t="n">
-        <v>13.95619619939374</v>
+        <v>8.798657007693672</v>
       </c>
       <c r="H17" t="n">
-        <v>14.5723682415458</v>
+        <v>9.32919800550788</v>
       </c>
       <c r="I17" t="n">
-        <v>13.78219884138408</v>
+        <v>8.581388834710092</v>
       </c>
       <c r="J17" t="n">
-        <v>14.60232987611927</v>
+        <v>9.438063160821519</v>
       </c>
       <c r="K17" t="n">
-        <v>13.83668639840815</v>
+        <v>8.327052525148968</v>
       </c>
       <c r="L17" t="n">
-        <v>14.35429689449674</v>
+        <v>9.011658025126513</v>
       </c>
       <c r="M17" t="n">
-        <v>14.01225963378154</v>
+        <v>8.680937599832919</v>
       </c>
       <c r="N17" t="n">
-        <v>14.29331682921229</v>
+        <v>9.058422164959334</v>
       </c>
       <c r="O17" t="n">
-        <v>13.91921232751363</v>
+        <v>8.342770283470342</v>
       </c>
       <c r="P17" t="n">
-        <v>14.10996536131048</v>
+        <v>9.133635066471168</v>
       </c>
       <c r="Q17" t="n">
-        <v>13.8324845024307</v>
+        <v>8.121015312594377</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>14.29924101007883</v>
+        <v>8.87802153034532</v>
       </c>
       <c r="B18" t="n">
-        <v>14.35327736572933</v>
+        <v>8.936615886013243</v>
       </c>
       <c r="C18" t="n">
-        <v>14.24480136824487</v>
+        <v>8.891381624918488</v>
       </c>
       <c r="D18" t="n">
-        <v>14.42001657066991</v>
+        <v>9.078012230460045</v>
       </c>
       <c r="E18" t="n">
-        <v>14.13908448712446</v>
+        <v>8.92170115532824</v>
       </c>
       <c r="F18" t="n">
-        <v>14.49744485593832</v>
+        <v>9.178313238862792</v>
       </c>
       <c r="G18" t="n">
-        <v>13.96600949652449</v>
+        <v>8.775515211263716</v>
       </c>
       <c r="H18" t="n">
-        <v>14.56737308297646</v>
+        <v>9.265589329444945</v>
       </c>
       <c r="I18" t="n">
-        <v>13.78131640329949</v>
+        <v>8.547245877064087</v>
       </c>
       <c r="J18" t="n">
-        <v>14.57123291773561</v>
+        <v>9.328966301881577</v>
       </c>
       <c r="K18" t="n">
-        <v>13.87481890387348</v>
+        <v>8.30921642435916</v>
       </c>
       <c r="L18" t="n">
-        <v>14.36959514991798</v>
+        <v>8.967345500101331</v>
       </c>
       <c r="M18" t="n">
-        <v>14.02792124606114</v>
+        <v>8.638281279632473</v>
       </c>
       <c r="N18" t="n">
-        <v>14.26913429895751</v>
+        <v>9.092519416684533</v>
       </c>
       <c r="O18" t="n">
-        <v>13.95032925055984</v>
+        <v>8.284620925725816</v>
       </c>
       <c r="P18" t="n">
-        <v>14.10474659852062</v>
+        <v>9.134546645669451</v>
       </c>
       <c r="Q18" t="n">
-        <v>13.8375927940878</v>
+        <v>7.931733763646114</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>14.29531595742203</v>
+        <v>8.831722067374018</v>
       </c>
       <c r="B19" t="n">
-        <v>14.35147122925755</v>
+        <v>8.882329313381218</v>
       </c>
       <c r="C19" t="n">
-        <v>14.24217002572114</v>
+        <v>8.850414519374469</v>
       </c>
       <c r="D19" t="n">
-        <v>14.42142607584575</v>
+        <v>9.014344517582735</v>
       </c>
       <c r="E19" t="n">
-        <v>14.14245718411745</v>
+        <v>8.901046522755438</v>
       </c>
       <c r="F19" t="n">
-        <v>14.48793901461081</v>
+        <v>9.128500133229585</v>
       </c>
       <c r="G19" t="n">
-        <v>13.9576163523896</v>
+        <v>8.738287738767809</v>
       </c>
       <c r="H19" t="n">
-        <v>14.56719207003604</v>
+        <v>9.201097005579772</v>
       </c>
       <c r="I19" t="n">
-        <v>13.79625529479488</v>
+        <v>8.479851227227778</v>
       </c>
       <c r="J19" t="n">
-        <v>14.580053305649</v>
+        <v>9.21967519277821</v>
       </c>
       <c r="K19" t="n">
-        <v>13.85514838735438</v>
+        <v>8.242716214000835</v>
       </c>
       <c r="L19" t="n">
-        <v>14.3642446203553</v>
+        <v>8.911868034310546</v>
       </c>
       <c r="M19" t="n">
-        <v>14.01731468633851</v>
+        <v>8.583785856334547</v>
       </c>
       <c r="N19" t="n">
-        <v>14.30335106860856</v>
+        <v>9.042696788984491</v>
       </c>
       <c r="O19" t="n">
-        <v>13.89215355487454</v>
+        <v>8.22110366150449</v>
       </c>
       <c r="P19" t="n">
-        <v>14.1261420618838</v>
+        <v>9.135905762008953</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.83159141652608</v>
+        <v>7.80107894539301</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>14.3042534713557</v>
+        <v>8.773992950179117</v>
       </c>
       <c r="B20" t="n">
-        <v>14.35555599921472</v>
+        <v>8.815987804136798</v>
       </c>
       <c r="C20" t="n">
-        <v>14.25089857618682</v>
+        <v>8.797191244205624</v>
       </c>
       <c r="D20" t="n">
-        <v>14.41735993957362</v>
+        <v>8.921796375996584</v>
       </c>
       <c r="E20" t="n">
-        <v>14.14410360328885</v>
+        <v>8.860777067308158</v>
       </c>
       <c r="F20" t="n">
-        <v>14.49598477361736</v>
+        <v>9.052095068950079</v>
       </c>
       <c r="G20" t="n">
-        <v>13.96824154579727</v>
+        <v>8.673502770048593</v>
       </c>
       <c r="H20" t="n">
-        <v>14.56061171726045</v>
+        <v>9.122315868222847</v>
       </c>
       <c r="I20" t="n">
-        <v>13.78861282197178</v>
+        <v>8.376003566331432</v>
       </c>
       <c r="J20" t="n">
-        <v>14.54612402713863</v>
+        <v>9.135835298714378</v>
       </c>
       <c r="K20" t="n">
-        <v>13.86782594807191</v>
+        <v>8.112519089760239</v>
       </c>
       <c r="L20" t="n">
-        <v>14.38411611447738</v>
+        <v>8.865371781958</v>
       </c>
       <c r="M20" t="n">
-        <v>14.03594171649514</v>
+        <v>8.538397337757074</v>
       </c>
       <c r="N20" t="n">
-        <v>14.32090533089765</v>
+        <v>9.054539066104251</v>
       </c>
       <c r="O20" t="n">
-        <v>13.93145732054264</v>
+        <v>8.171932977980379</v>
       </c>
       <c r="P20" t="n">
-        <v>14.21895910904366</v>
+        <v>9.120867879259558</v>
       </c>
       <c r="Q20" t="n">
-        <v>13.82370005090989</v>
+        <v>7.733733810304241</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>14.29695838366092</v>
+        <v>8.502810834778968</v>
       </c>
       <c r="B21" t="n">
-        <v>14.35196102897871</v>
+        <v>8.551824721602538</v>
       </c>
       <c r="C21" t="n">
-        <v>14.24064472550253</v>
+        <v>8.521783870348807</v>
       </c>
       <c r="D21" t="n">
-        <v>14.42524864323481</v>
+        <v>8.662862812567795</v>
       </c>
       <c r="E21" t="n">
-        <v>14.14204857402398</v>
+        <v>8.585967679248544</v>
       </c>
       <c r="F21" t="n">
-        <v>14.49084054556768</v>
+        <v>8.799770454708845</v>
       </c>
       <c r="G21" t="n">
-        <v>13.9595995088693</v>
+        <v>8.379196632743245</v>
       </c>
       <c r="H21" t="n">
-        <v>14.56481627519291</v>
+        <v>8.859186247342352</v>
       </c>
       <c r="I21" t="n">
-        <v>13.78887103160739</v>
+        <v>8.028639203015702</v>
       </c>
       <c r="J21" t="n">
-        <v>14.60800782614772</v>
+        <v>8.857562417544852</v>
       </c>
       <c r="K21" t="n">
-        <v>13.82953904921622</v>
+        <v>7.739553697553448</v>
       </c>
       <c r="L21" t="n">
-        <v>14.36425393719783</v>
+        <v>8.650733603834093</v>
       </c>
       <c r="M21" t="n">
-        <v>14.01224632400651</v>
+        <v>8.288792225803753</v>
       </c>
       <c r="N21" t="n">
-        <v>14.33975197234229</v>
+        <v>8.829715450489775</v>
       </c>
       <c r="O21" t="n">
-        <v>13.92558637877623</v>
+        <v>7.871299109861322</v>
       </c>
       <c r="P21" t="n">
-        <v>14.26725229676805</v>
+        <v>9.172127704247144</v>
       </c>
       <c r="Q21" t="n">
-        <v>13.84706536097774</v>
+        <v>7.58264463662444</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>14.30937374181033</v>
+        <v>8.098197901241249</v>
       </c>
       <c r="B22" t="n">
-        <v>14.36093847223747</v>
+        <v>8.156280604517935</v>
       </c>
       <c r="C22" t="n">
-        <v>14.25427659708982</v>
+        <v>8.09649852971353</v>
       </c>
       <c r="D22" t="n">
-        <v>14.42498510968918</v>
+        <v>8.331482190640347</v>
       </c>
       <c r="E22" t="n">
-        <v>14.1476306936722</v>
+        <v>8.120317662497641</v>
       </c>
       <c r="F22" t="n">
-        <v>14.49620704686039</v>
+        <v>8.447210851728247</v>
       </c>
       <c r="G22" t="n">
-        <v>13.97423360651647</v>
+        <v>8.030654707162324</v>
       </c>
       <c r="H22" t="n">
-        <v>14.56999510865768</v>
+        <v>8.544955502588177</v>
       </c>
       <c r="I22" t="n">
-        <v>13.79171533053163</v>
+        <v>7.834745799697293</v>
       </c>
       <c r="J22" t="n">
-        <v>14.51934875270771</v>
+        <v>8.523442614391366</v>
       </c>
       <c r="K22" t="n">
-        <v>13.86682372201204</v>
+        <v>7.587869712098723</v>
       </c>
       <c r="L22" t="n">
-        <v>14.37451444276963</v>
+        <v>8.371314900622156</v>
       </c>
       <c r="M22" t="n">
-        <v>14.02727439099461</v>
+        <v>8.023061811068546</v>
       </c>
       <c r="N22" t="n">
-        <v>14.33632204331666</v>
+        <v>8.611584578250996</v>
       </c>
       <c r="O22" t="n">
-        <v>13.90916211638733</v>
+        <v>7.694114394619525</v>
       </c>
       <c r="P22" t="n">
-        <v>14.26410985888311</v>
+        <v>8.947831611135296</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.79515058346726</v>
+        <v>7.570943286093831</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>14.30557779397134</v>
+        <v>8.088487932287949</v>
       </c>
       <c r="B23" t="n">
-        <v>14.3602317231833</v>
+        <v>8.149575799857582</v>
       </c>
       <c r="C23" t="n">
-        <v>14.2531705547847</v>
+        <v>8.070708329094691</v>
       </c>
       <c r="D23" t="n">
-        <v>14.42359556917589</v>
+        <v>8.282473382252423</v>
       </c>
       <c r="E23" t="n">
-        <v>14.14620255481132</v>
+        <v>8.049495068600937</v>
       </c>
       <c r="F23" t="n">
-        <v>14.50444579760491</v>
+        <v>8.424399788419676</v>
       </c>
       <c r="G23" t="n">
-        <v>13.94991797851137</v>
+        <v>7.967019369312252</v>
       </c>
       <c r="H23" t="n">
-        <v>14.57504217534963</v>
+        <v>8.536029517137578</v>
       </c>
       <c r="I23" t="n">
-        <v>13.76765658118464</v>
+        <v>7.776613581673068</v>
       </c>
       <c r="J23" t="n">
-        <v>14.52965051858211</v>
+        <v>8.471407058359002</v>
       </c>
       <c r="K23" t="n">
-        <v>13.86028329856155</v>
+        <v>7.536140766618427</v>
       </c>
       <c r="L23" t="n">
-        <v>14.38468976578123</v>
+        <v>8.377212868819404</v>
       </c>
       <c r="M23" t="n">
-        <v>14.01753429762653</v>
+        <v>8.014115511875366</v>
       </c>
       <c r="N23" t="n">
-        <v>14.3488345628238</v>
+        <v>8.625609947893663</v>
       </c>
       <c r="O23" t="n">
-        <v>13.91861604959222</v>
+        <v>7.643742661065364</v>
       </c>
       <c r="P23" t="n">
-        <v>14.23980620967554</v>
+        <v>8.935781752958546</v>
       </c>
       <c r="Q23" t="n">
-        <v>13.83861365383272</v>
+        <v>7.53349426684291</v>
       </c>
     </row>
   </sheetData>
@@ -4205,1168 +4205,1168 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.324407798197191</v>
+        <v>3.18742966565008</v>
       </c>
       <c r="B2" t="n">
-        <v>5.269144281288786</v>
+        <v>3.159265613769417</v>
       </c>
       <c r="C2" t="n">
-        <v>5.260816355051559</v>
+        <v>3.149727676823591</v>
       </c>
       <c r="D2" t="n">
-        <v>5.306732416955322</v>
+        <v>3.224337831504806</v>
       </c>
       <c r="E2" t="n">
-        <v>5.283186093947047</v>
+        <v>3.201574695932633</v>
       </c>
       <c r="F2" t="n">
-        <v>5.649401891984521</v>
+        <v>3.546050698975251</v>
       </c>
       <c r="G2" t="n">
-        <v>5.606310829831199</v>
+        <v>3.459482415361125</v>
       </c>
       <c r="H2" t="n">
-        <v>6.017257454305879</v>
+        <v>3.936272932906089</v>
       </c>
       <c r="I2" t="n">
-        <v>5.972061451231321</v>
+        <v>3.71672898594908</v>
       </c>
       <c r="J2" t="n">
-        <v>6.17377974318789</v>
+        <v>4.254295364673735</v>
       </c>
       <c r="K2" t="n">
-        <v>6.251961361723083</v>
+        <v>3.941300901596898</v>
       </c>
       <c r="L2" t="n">
-        <v>6.399156160263001</v>
+        <v>4.092990600291724</v>
       </c>
       <c r="M2" t="n">
-        <v>6.378797528374776</v>
+        <v>4.033665584695372</v>
       </c>
       <c r="N2" t="n">
-        <v>7.092546193237969</v>
+        <v>4.427612533769613</v>
       </c>
       <c r="O2" t="n">
-        <v>7.059865371625556</v>
+        <v>4.345260303947548</v>
       </c>
       <c r="P2" t="n">
-        <v>7.722894476776106</v>
+        <v>4.739198683161638</v>
       </c>
       <c r="Q2" t="n">
-        <v>7.60965491080787</v>
+        <v>4.722467776929079</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.329816225281252</v>
+        <v>3.183777318214619</v>
       </c>
       <c r="B3" t="n">
-        <v>5.275150317271763</v>
+        <v>3.15698634837148</v>
       </c>
       <c r="C3" t="n">
-        <v>5.265585247445355</v>
+        <v>3.148501234615316</v>
       </c>
       <c r="D3" t="n">
-        <v>5.311066079705588</v>
+        <v>3.232527443786875</v>
       </c>
       <c r="E3" t="n">
-        <v>5.282760181146038</v>
+        <v>3.208355677127662</v>
       </c>
       <c r="F3" t="n">
-        <v>5.650205802396425</v>
+        <v>3.569211222136647</v>
       </c>
       <c r="G3" t="n">
-        <v>5.60283697854797</v>
+        <v>3.482352515484071</v>
       </c>
       <c r="H3" t="n">
-        <v>6.023178973217405</v>
+        <v>3.951839607767023</v>
       </c>
       <c r="I3" t="n">
-        <v>5.974133117714977</v>
+        <v>3.730844815226674</v>
       </c>
       <c r="J3" t="n">
-        <v>6.109825608672649</v>
+        <v>4.248315189299483</v>
       </c>
       <c r="K3" t="n">
-        <v>6.269989452003288</v>
+        <v>3.962653501668663</v>
       </c>
       <c r="L3" t="n">
-        <v>6.408679304298059</v>
+        <v>4.092810315826326</v>
       </c>
       <c r="M3" t="n">
-        <v>6.386358811570187</v>
+        <v>4.032281076177646</v>
       </c>
       <c r="N3" t="n">
-        <v>7.086154839267829</v>
+        <v>4.41775465537815</v>
       </c>
       <c r="O3" t="n">
-        <v>7.057200754664244</v>
+        <v>4.324294299789261</v>
       </c>
       <c r="P3" t="n">
-        <v>7.721542869121655</v>
+        <v>4.739402455391894</v>
       </c>
       <c r="Q3" t="n">
-        <v>7.58371282829392</v>
+        <v>4.720674454341927</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.333801837414443</v>
+        <v>3.183962681115662</v>
       </c>
       <c r="B4" t="n">
-        <v>5.279260375801498</v>
+        <v>3.1582121557753</v>
       </c>
       <c r="C4" t="n">
-        <v>5.270189098628761</v>
+        <v>3.141935452130745</v>
       </c>
       <c r="D4" t="n">
-        <v>5.315419707118401</v>
+        <v>3.24106048527944</v>
       </c>
       <c r="E4" t="n">
-        <v>5.287829208966795</v>
+        <v>3.198739976636022</v>
       </c>
       <c r="F4" t="n">
-        <v>5.655129753669339</v>
+        <v>3.574701328471154</v>
       </c>
       <c r="G4" t="n">
-        <v>5.604789522545095</v>
+        <v>3.481123534057973</v>
       </c>
       <c r="H4" t="n">
-        <v>6.020211558874126</v>
+        <v>3.967119033611785</v>
       </c>
       <c r="I4" t="n">
-        <v>5.969310320732304</v>
+        <v>3.735529672109215</v>
       </c>
       <c r="J4" t="n">
-        <v>6.046296055980914</v>
+        <v>4.215363124812237</v>
       </c>
       <c r="K4" t="n">
-        <v>6.264016024969138</v>
+        <v>3.988983920879242</v>
       </c>
       <c r="L4" t="n">
-        <v>6.425399043692664</v>
+        <v>4.075252576790311</v>
       </c>
       <c r="M4" t="n">
-        <v>6.402227390851526</v>
+        <v>4.022252435387618</v>
       </c>
       <c r="N4" t="n">
-        <v>7.10050011479681</v>
+        <v>4.388094051993342</v>
       </c>
       <c r="O4" t="n">
-        <v>7.070929787609264</v>
+        <v>4.30970173236549</v>
       </c>
       <c r="P4" t="n">
-        <v>7.728222379721227</v>
+        <v>4.727288481965126</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.601116690125145</v>
+        <v>4.728374949790935</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.334129923368971</v>
+        <v>3.259426647789698</v>
       </c>
       <c r="B5" t="n">
-        <v>5.279574486492242</v>
+        <v>3.231940567067646</v>
       </c>
       <c r="C5" t="n">
-        <v>5.27092779114301</v>
+        <v>3.21807770736562</v>
       </c>
       <c r="D5" t="n">
-        <v>5.316501126339712</v>
+        <v>3.280409156863831</v>
       </c>
       <c r="E5" t="n">
-        <v>5.290044621020793</v>
+        <v>3.247425034751577</v>
       </c>
       <c r="F5" t="n">
-        <v>5.655859794829817</v>
+        <v>3.575864290233867</v>
       </c>
       <c r="G5" t="n">
-        <v>5.605370494225221</v>
+        <v>3.49368060099477</v>
       </c>
       <c r="H5" t="n">
-        <v>6.017624138607998</v>
+        <v>3.94444635767454</v>
       </c>
       <c r="I5" t="n">
-        <v>5.965591569588495</v>
+        <v>3.74477877302773</v>
       </c>
       <c r="J5" t="n">
-        <v>6.032096522488529</v>
+        <v>4.197820938485386</v>
       </c>
       <c r="K5" t="n">
-        <v>6.261254246650096</v>
+        <v>3.972898293375831</v>
       </c>
       <c r="L5" t="n">
-        <v>6.421187830872689</v>
+        <v>4.091671794035155</v>
       </c>
       <c r="M5" t="n">
-        <v>6.397889735168751</v>
+        <v>4.039639412025069</v>
       </c>
       <c r="N5" t="n">
-        <v>7.097571964289874</v>
+        <v>4.401130078891911</v>
       </c>
       <c r="O5" t="n">
-        <v>7.066940848032316</v>
+        <v>4.325259202561817</v>
       </c>
       <c r="P5" t="n">
-        <v>7.728026060539512</v>
+        <v>4.701331327774456</v>
       </c>
       <c r="Q5" t="n">
-        <v>7.601915276627037</v>
+        <v>4.731801941644648</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.33093823931641</v>
+        <v>3.200162890823314</v>
       </c>
       <c r="B6" t="n">
-        <v>5.276611065081473</v>
+        <v>3.173650282733969</v>
       </c>
       <c r="C6" t="n">
-        <v>5.267602343851383</v>
+        <v>3.15915325338077</v>
       </c>
       <c r="D6" t="n">
-        <v>5.315286609368085</v>
+        <v>3.247451061734257</v>
       </c>
       <c r="E6" t="n">
-        <v>5.288246470414034</v>
+        <v>3.215958730092731</v>
       </c>
       <c r="F6" t="n">
-        <v>5.656881320063488</v>
+        <v>3.566699935710179</v>
       </c>
       <c r="G6" t="n">
-        <v>5.607205246713318</v>
+        <v>3.488422198286568</v>
       </c>
       <c r="H6" t="n">
-        <v>6.017002572114025</v>
+        <v>3.934777968413083</v>
       </c>
       <c r="I6" t="n">
-        <v>5.971042587952657</v>
+        <v>3.73980603232456</v>
       </c>
       <c r="J6" t="n">
-        <v>6.039923335695819</v>
+        <v>4.192190540366184</v>
       </c>
       <c r="K6" t="n">
-        <v>6.267144487590299</v>
+        <v>3.970073096146054</v>
       </c>
       <c r="L6" t="n">
-        <v>6.422266588138994</v>
+        <v>4.08349170381992</v>
       </c>
       <c r="M6" t="n">
-        <v>6.399761089538184</v>
+        <v>4.036684079881888</v>
       </c>
       <c r="N6" t="n">
-        <v>7.101053135949369</v>
+        <v>4.372991101787244</v>
       </c>
       <c r="O6" t="n">
-        <v>7.070461949016907</v>
+        <v>4.31996080717291</v>
       </c>
       <c r="P6" t="n">
-        <v>7.726124093687506</v>
+        <v>4.719992039552126</v>
       </c>
       <c r="Q6" t="n">
-        <v>7.616408956147619</v>
+        <v>4.751401846614421</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.330318669288692</v>
+        <v>3.182242361040908</v>
       </c>
       <c r="B7" t="n">
-        <v>5.275652095790451</v>
+        <v>3.157368500653769</v>
       </c>
       <c r="C7" t="n">
-        <v>5.267265606543085</v>
+        <v>3.144084265213049</v>
       </c>
       <c r="D7" t="n">
-        <v>5.314082074727732</v>
+        <v>3.22893667238361</v>
       </c>
       <c r="E7" t="n">
-        <v>5.288463419747048</v>
+        <v>3.199252263831715</v>
       </c>
       <c r="F7" t="n">
-        <v>5.656327633422176</v>
+        <v>3.533173055788361</v>
       </c>
       <c r="G7" t="n">
-        <v>5.607355647171174</v>
+        <v>3.465742222098083</v>
       </c>
       <c r="H7" t="n">
-        <v>6.015862589882574</v>
+        <v>3.8852298936401</v>
       </c>
       <c r="I7" t="n">
-        <v>5.970927458398634</v>
+        <v>3.713865383049737</v>
       </c>
       <c r="J7" t="n">
-        <v>6.045849513028606</v>
+        <v>4.17916816176341</v>
       </c>
       <c r="K7" t="n">
-        <v>6.278082460711208</v>
+        <v>3.95563922983619</v>
       </c>
       <c r="L7" t="n">
-        <v>6.418764120839447</v>
+        <v>4.06390735155931</v>
       </c>
       <c r="M7" t="n">
-        <v>6.39650019465546</v>
+        <v>4.022991030371743</v>
       </c>
       <c r="N7" t="n">
-        <v>7.10026386629</v>
+        <v>4.350419042356217</v>
       </c>
       <c r="O7" t="n">
-        <v>7.068120094100109</v>
+        <v>4.295292623429394</v>
       </c>
       <c r="P7" t="n">
-        <v>7.729723056856032</v>
+        <v>4.697111782557891</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.621697595256396</v>
+        <v>4.737204762366507</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.330494358319108</v>
+        <v>3.21301355482084</v>
       </c>
       <c r="B8" t="n">
-        <v>5.275974857834965</v>
+        <v>3.18057187311592</v>
       </c>
       <c r="C8" t="n">
-        <v>5.26812874545388</v>
+        <v>3.170434045959525</v>
       </c>
       <c r="D8" t="n">
-        <v>5.314809453933205</v>
+        <v>3.209825566844671</v>
       </c>
       <c r="E8" t="n">
-        <v>5.290333443138977</v>
+        <v>3.188929391176504</v>
       </c>
       <c r="F8" t="n">
-        <v>5.653970472264093</v>
+        <v>3.492266891472084</v>
       </c>
       <c r="G8" t="n">
-        <v>5.604683044344843</v>
+        <v>3.436381563818558</v>
       </c>
       <c r="H8" t="n">
-        <v>5.993576702569785</v>
+        <v>3.831790784956341</v>
       </c>
       <c r="I8" t="n">
-        <v>5.945308137929199</v>
+        <v>3.690195111910471</v>
       </c>
       <c r="J8" t="n">
-        <v>6.021833354961718</v>
+        <v>4.146304652497726</v>
       </c>
       <c r="K8" t="n">
-        <v>6.255488452106438</v>
+        <v>3.92363048477001</v>
       </c>
       <c r="L8" t="n">
-        <v>6.422302524531579</v>
+        <v>4.020838725864933</v>
       </c>
       <c r="M8" t="n">
-        <v>6.400127773840302</v>
+        <v>3.986688785369916</v>
       </c>
       <c r="N8" t="n">
-        <v>7.101708642369672</v>
+        <v>4.307654170593858</v>
       </c>
       <c r="O8" t="n">
-        <v>7.069254086932796</v>
+        <v>4.275010621072048</v>
       </c>
       <c r="P8" t="n">
-        <v>7.726749653113989</v>
+        <v>4.656728697113052</v>
       </c>
       <c r="Q8" t="n">
-        <v>7.613131424046105</v>
+        <v>4.702015329575397</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.330382556208844</v>
+        <v>3.152390681514954</v>
       </c>
       <c r="B9" t="n">
-        <v>5.275759904968206</v>
+        <v>3.12245203377858</v>
       </c>
       <c r="C9" t="n">
-        <v>5.267013386306238</v>
+        <v>3.112577967873499</v>
       </c>
       <c r="D9" t="n">
-        <v>5.314017522318829</v>
+        <v>3.167562825406715</v>
       </c>
       <c r="E9" t="n">
-        <v>5.287353384509418</v>
+        <v>3.147277331624863</v>
       </c>
       <c r="F9" t="n">
-        <v>5.653653034129591</v>
+        <v>3.456523909195666</v>
       </c>
       <c r="G9" t="n">
-        <v>5.606399339835159</v>
+        <v>3.404077317278282</v>
       </c>
       <c r="H9" t="n">
-        <v>6.001380889159521</v>
+        <v>3.790950640303449</v>
       </c>
       <c r="I9" t="n">
-        <v>5.963656328298911</v>
+        <v>3.667811272000537</v>
       </c>
       <c r="J9" t="n">
-        <v>6.020916311462045</v>
+        <v>4.120421135623909</v>
       </c>
       <c r="K9" t="n">
-        <v>6.259272421147902</v>
+        <v>3.904587303307823</v>
       </c>
       <c r="L9" t="n">
-        <v>6.42249285431453</v>
+        <v>3.977561566906882</v>
       </c>
       <c r="M9" t="n">
-        <v>6.400218945799269</v>
+        <v>3.945309691734195</v>
       </c>
       <c r="N9" t="n">
-        <v>7.099762087771311</v>
+        <v>4.275865067869325</v>
       </c>
       <c r="O9" t="n">
-        <v>7.066610765611534</v>
+        <v>4.213460933260945</v>
       </c>
       <c r="P9" t="n">
-        <v>7.722354099909826</v>
+        <v>4.551160081337495</v>
       </c>
       <c r="Q9" t="n">
-        <v>7.602113592275007</v>
+        <v>4.659090804492448</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.34585317321674</v>
+        <v>3.126582706371358</v>
       </c>
       <c r="B10" t="n">
-        <v>5.288601175918624</v>
+        <v>3.096917659355359</v>
       </c>
       <c r="C10" t="n">
-        <v>5.278131706878824</v>
+        <v>3.089714850599565</v>
       </c>
       <c r="D10" t="n">
-        <v>5.325443964183395</v>
+        <v>3.141295569239471</v>
       </c>
       <c r="E10" t="n">
-        <v>5.29467442626551</v>
+        <v>3.128798808725958</v>
       </c>
       <c r="F10" t="n">
-        <v>5.655674123468128</v>
+        <v>3.429532023742321</v>
       </c>
       <c r="G10" t="n">
-        <v>5.608811071070871</v>
+        <v>3.382230839340038</v>
       </c>
       <c r="H10" t="n">
-        <v>6.011556877659875</v>
+        <v>3.752001578123877</v>
       </c>
       <c r="I10" t="n">
-        <v>6.002876907873064</v>
+        <v>3.654182655142638</v>
       </c>
       <c r="J10" t="n">
-        <v>6.051027681004622</v>
+        <v>4.076071157135845</v>
       </c>
       <c r="K10" t="n">
-        <v>6.272189557815999</v>
+        <v>3.893282388159754</v>
       </c>
       <c r="L10" t="n">
-        <v>6.426124426431882</v>
+        <v>3.970143242038402</v>
       </c>
       <c r="M10" t="n">
-        <v>6.401293710133064</v>
+        <v>3.940379165527325</v>
       </c>
       <c r="N10" t="n">
-        <v>7.107115738476231</v>
+        <v>4.292214139221822</v>
       </c>
       <c r="O10" t="n">
-        <v>7.076026100468837</v>
+        <v>4.216139808063699</v>
       </c>
       <c r="P10" t="n">
-        <v>7.711216480163444</v>
+        <v>4.503592279063848</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.680985988134336</v>
+        <v>4.662119773952481</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.34689599409046</v>
+        <v>3.068672035102147</v>
       </c>
       <c r="B11" t="n">
-        <v>5.288993148793303</v>
+        <v>3.040832050896082</v>
       </c>
       <c r="C11" t="n">
-        <v>5.278577584342381</v>
+        <v>3.026799381002175</v>
       </c>
       <c r="D11" t="n">
-        <v>5.327307332687809</v>
+        <v>3.102628995042653</v>
       </c>
       <c r="E11" t="n">
-        <v>5.297032252912345</v>
+        <v>3.077986520879592</v>
       </c>
       <c r="F11" t="n">
-        <v>5.661469865005607</v>
+        <v>3.431394857417365</v>
       </c>
       <c r="G11" t="n">
-        <v>5.61392734859299</v>
+        <v>3.338133830427542</v>
       </c>
       <c r="H11" t="n">
-        <v>6.041304224855339</v>
+        <v>3.73412611945782</v>
       </c>
       <c r="I11" t="n">
-        <v>6.008672649410543</v>
+        <v>3.639909394360048</v>
       </c>
       <c r="J11" t="n">
-        <v>6.141415028732477</v>
+        <v>4.039694640012709</v>
       </c>
       <c r="K11" t="n">
-        <v>6.270992343551913</v>
+        <v>3.858511926309359</v>
       </c>
       <c r="L11" t="n">
-        <v>6.425626640845703</v>
+        <v>3.996397484714306</v>
       </c>
       <c r="M11" t="n">
-        <v>6.401056130648752</v>
+        <v>3.934866206232415</v>
       </c>
       <c r="N11" t="n">
-        <v>7.105821362854415</v>
+        <v>4.430777668785379</v>
       </c>
       <c r="O11" t="n">
-        <v>7.077491506699808</v>
+        <v>4.18038952553604</v>
       </c>
       <c r="P11" t="n">
-        <v>7.713966279684958</v>
+        <v>4.446756331738017</v>
       </c>
       <c r="Q11" t="n">
-        <v>7.687736706030326</v>
+        <v>4.690869750345691</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.331402084976259</v>
+        <v>3.067497964261461</v>
       </c>
       <c r="B12" t="n">
-        <v>5.277177396009064</v>
+        <v>3.039247261572604</v>
       </c>
       <c r="C12" t="n">
-        <v>5.267633621822707</v>
+        <v>3.025234905421278</v>
       </c>
       <c r="D12" t="n">
-        <v>5.316652857775072</v>
+        <v>3.09918454606641</v>
       </c>
       <c r="E12" t="n">
-        <v>5.288368254855572</v>
+        <v>3.073016636796472</v>
       </c>
       <c r="F12" t="n">
-        <v>5.660607391583564</v>
+        <v>3.416430294582595</v>
       </c>
       <c r="G12" t="n">
-        <v>5.609163114620455</v>
+        <v>3.338613742595998</v>
       </c>
       <c r="H12" t="n">
-        <v>6.029667488545275</v>
+        <v>3.727178184690961</v>
       </c>
       <c r="I12" t="n">
-        <v>5.972784837504284</v>
+        <v>3.606711343146246</v>
       </c>
       <c r="J12" t="n">
-        <v>6.141737790776991</v>
+        <v>4.034756813554599</v>
       </c>
       <c r="K12" t="n">
-        <v>6.255027268401596</v>
+        <v>3.813197679853195</v>
       </c>
       <c r="L12" t="n">
-        <v>6.420611517613824</v>
+        <v>3.986103813064053</v>
       </c>
       <c r="M12" t="n">
-        <v>6.399180783346809</v>
+        <v>3.940492160720427</v>
       </c>
       <c r="N12" t="n">
-        <v>7.096939749975876</v>
+        <v>4.400177237404011</v>
       </c>
       <c r="O12" t="n">
-        <v>7.064735418309592</v>
+        <v>4.248330742008645</v>
       </c>
       <c r="P12" t="n">
-        <v>7.71864067267603</v>
+        <v>4.464317562198537</v>
       </c>
       <c r="Q12" t="n">
-        <v>7.622946717643105</v>
+        <v>4.723026087447805</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.333361949349651</v>
+        <v>3.115476802420129</v>
       </c>
       <c r="B13" t="n">
-        <v>5.278987525413352</v>
+        <v>3.083881949859018</v>
       </c>
       <c r="C13" t="n">
-        <v>5.269323963251711</v>
+        <v>3.07231263865518</v>
       </c>
       <c r="D13" t="n">
-        <v>5.320048181385614</v>
+        <v>3.124075863576079</v>
       </c>
       <c r="E13" t="n">
-        <v>5.2914408164216</v>
+        <v>3.104709884048205</v>
       </c>
       <c r="F13" t="n">
-        <v>5.665752950610752</v>
+        <v>3.427591426521464</v>
       </c>
       <c r="G13" t="n">
-        <v>5.61419287860487</v>
+        <v>3.35864372758446</v>
       </c>
       <c r="H13" t="n">
-        <v>6.039451504170951</v>
+        <v>3.719337714859487</v>
       </c>
       <c r="I13" t="n">
-        <v>5.980195054753087</v>
+        <v>3.625140986102067</v>
       </c>
       <c r="J13" t="n">
-        <v>6.178408217455105</v>
+        <v>4.02579147022775</v>
       </c>
       <c r="K13" t="n">
-        <v>6.253444070661596</v>
+        <v>3.816117780349089</v>
       </c>
       <c r="L13" t="n">
-        <v>6.42099816657849</v>
+        <v>4.000604651243987</v>
       </c>
       <c r="M13" t="n">
-        <v>6.399482249751274</v>
+        <v>3.956287999989843</v>
       </c>
       <c r="N13" t="n">
-        <v>7.099951752065511</v>
+        <v>4.452554000831277</v>
       </c>
       <c r="O13" t="n">
-        <v>7.066508280343792</v>
+        <v>4.29509139041696</v>
       </c>
       <c r="P13" t="n">
-        <v>7.719732739717367</v>
+        <v>4.470169824474981</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.630301033836775</v>
+        <v>4.741974683046103</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5.342839840149602</v>
+        <v>3.124196476422648</v>
       </c>
       <c r="B14" t="n">
-        <v>5.285170581404248</v>
+        <v>3.094541268875712</v>
       </c>
       <c r="C14" t="n">
-        <v>5.275447790743717</v>
+        <v>3.080061061840587</v>
       </c>
       <c r="D14" t="n">
-        <v>5.323458811237443</v>
+        <v>3.142803864626045</v>
       </c>
       <c r="E14" t="n">
-        <v>5.295413784268511</v>
+        <v>3.110220938929748</v>
       </c>
       <c r="F14" t="n">
-        <v>5.657734476643008</v>
+        <v>3.444060158513846</v>
       </c>
       <c r="G14" t="n">
-        <v>5.616080870193092</v>
+        <v>3.37649538108343</v>
       </c>
       <c r="H14" t="n">
-        <v>6.048061597638846</v>
+        <v>3.722491740797279</v>
       </c>
       <c r="I14" t="n">
-        <v>6.013018290958337</v>
+        <v>3.632641518147552</v>
       </c>
       <c r="J14" t="n">
-        <v>6.229246899654279</v>
+        <v>4.030221135719129</v>
       </c>
       <c r="K14" t="n">
-        <v>6.303649207569269</v>
+        <v>3.833498408941983</v>
       </c>
       <c r="L14" t="n">
-        <v>6.430583201067444</v>
+        <v>4.014610659350757</v>
       </c>
       <c r="M14" t="n">
-        <v>6.410664457244011</v>
+        <v>3.963020418644017</v>
       </c>
       <c r="N14" t="n">
-        <v>7.104045838865209</v>
+        <v>4.440010264788048</v>
       </c>
       <c r="O14" t="n">
-        <v>7.083078950258043</v>
+        <v>4.302428142912892</v>
       </c>
       <c r="P14" t="n">
-        <v>7.708143253108664</v>
+        <v>4.717223022516673</v>
       </c>
       <c r="Q14" t="n">
-        <v>7.693002718521551</v>
+        <v>4.753294516098879</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.347509574719413</v>
+        <v>3.117238067382271</v>
       </c>
       <c r="B15" t="n">
-        <v>5.289123584588611</v>
+        <v>3.086352608800326</v>
       </c>
       <c r="C15" t="n">
-        <v>5.279997737338245</v>
+        <v>3.073887271107367</v>
       </c>
       <c r="D15" t="n">
-        <v>5.324482998426119</v>
+        <v>3.140300513255272</v>
       </c>
       <c r="E15" t="n">
-        <v>5.2979839018271</v>
+        <v>3.111528001303888</v>
       </c>
       <c r="F15" t="n">
-        <v>5.653388169606464</v>
+        <v>3.454075468410305</v>
       </c>
       <c r="G15" t="n">
-        <v>5.618159857053016</v>
+        <v>3.380101070391403</v>
       </c>
       <c r="H15" t="n">
-        <v>6.039457493569715</v>
+        <v>3.752151709377633</v>
       </c>
       <c r="I15" t="n">
-        <v>6.021960463313269</v>
+        <v>3.654513705666249</v>
       </c>
       <c r="J15" t="n">
-        <v>6.20438224342913</v>
+        <v>4.081430176350265</v>
       </c>
       <c r="K15" t="n">
-        <v>6.302378124053758</v>
+        <v>3.856466903755551</v>
       </c>
       <c r="L15" t="n">
-        <v>6.436700373671934</v>
+        <v>4.035047553995277</v>
       </c>
       <c r="M15" t="n">
-        <v>6.419919409312184</v>
+        <v>3.974055859300671</v>
       </c>
       <c r="N15" t="n">
-        <v>7.112427004202561</v>
+        <v>4.455503619734356</v>
       </c>
       <c r="O15" t="n">
-        <v>7.094723672433127</v>
+        <v>4.273420753312926</v>
       </c>
       <c r="P15" t="n">
-        <v>7.714334960453331</v>
+        <v>4.731133175150643</v>
       </c>
       <c r="Q15" t="n">
-        <v>7.702963088666394</v>
+        <v>4.719719708440661</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5.328562444473282</v>
+        <v>3.158560980823668</v>
       </c>
       <c r="B16" t="n">
-        <v>5.273635664873175</v>
+        <v>3.128377933371877</v>
       </c>
       <c r="C16" t="n">
-        <v>5.264929741025052</v>
+        <v>3.116727684599946</v>
       </c>
       <c r="D16" t="n">
-        <v>5.311804106731086</v>
+        <v>3.182095086407202</v>
       </c>
       <c r="E16" t="n">
-        <v>5.285421470663592</v>
+        <v>3.159855981913152</v>
       </c>
       <c r="F16" t="n">
-        <v>5.647030090073902</v>
+        <v>3.495035591105311</v>
       </c>
       <c r="G16" t="n">
-        <v>5.610371642193318</v>
+        <v>3.410441866750419</v>
       </c>
       <c r="H16" t="n">
-        <v>6.032078554292236</v>
+        <v>3.823935714622388</v>
       </c>
       <c r="I16" t="n">
-        <v>6.003661519111173</v>
+        <v>3.696662817106647</v>
       </c>
       <c r="J16" t="n">
-        <v>6.230537947832337</v>
+        <v>4.168234607221884</v>
       </c>
       <c r="K16" t="n">
-        <v>6.299861911084048</v>
+        <v>3.912198608730815</v>
       </c>
       <c r="L16" t="n">
-        <v>6.439769607794204</v>
+        <v>4.058874304432855</v>
       </c>
       <c r="M16" t="n">
-        <v>6.422920098093042</v>
+        <v>3.990629016626005</v>
       </c>
       <c r="N16" t="n">
-        <v>7.112774389330884</v>
+        <v>4.451683049118153</v>
       </c>
       <c r="O16" t="n">
-        <v>7.077373049702027</v>
+        <v>4.260948432770955</v>
       </c>
       <c r="P16" t="n">
-        <v>7.719538417001907</v>
+        <v>4.697170819372264</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.624612435988301</v>
+        <v>4.713963619039245</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.328273622355098</v>
+        <v>3.177429908462785</v>
       </c>
       <c r="B17" t="n">
-        <v>5.272661389340866</v>
+        <v>3.150321218989604</v>
       </c>
       <c r="C17" t="n">
-        <v>5.264281554981017</v>
+        <v>3.134580607707827</v>
       </c>
       <c r="D17" t="n">
-        <v>5.311205166854667</v>
+        <v>3.226083543757785</v>
       </c>
       <c r="E17" t="n">
-        <v>5.285552571947653</v>
+        <v>3.189468022757105</v>
       </c>
       <c r="F17" t="n">
-        <v>5.647249701361923</v>
+        <v>3.567410916700483</v>
       </c>
       <c r="G17" t="n">
-        <v>5.60938072944222</v>
+        <v>3.457292022586977</v>
       </c>
       <c r="H17" t="n">
-        <v>6.027631092965451</v>
+        <v>3.936642071697037</v>
       </c>
       <c r="I17" t="n">
-        <v>5.998203180370743</v>
+        <v>3.7481219706933</v>
       </c>
       <c r="J17" t="n">
-        <v>6.219144114916598</v>
+        <v>4.251266395213701</v>
       </c>
       <c r="K17" t="n">
-        <v>6.297341039693077</v>
+        <v>3.958624397788786</v>
       </c>
       <c r="L17" t="n">
-        <v>6.436092782441745</v>
+        <v>4.105705098733518</v>
       </c>
       <c r="M17" t="n">
-        <v>6.418080663891579</v>
+        <v>4.033176785264538</v>
       </c>
       <c r="N17" t="n">
-        <v>7.107540985788487</v>
+        <v>4.484976003598072</v>
       </c>
       <c r="O17" t="n">
-        <v>7.066371189660967</v>
+        <v>4.311940370278265</v>
       </c>
       <c r="P17" t="n">
-        <v>7.721683952736988</v>
+        <v>4.733748886910062</v>
       </c>
       <c r="Q17" t="n">
-        <v>7.623523696390722</v>
+        <v>4.734264348128033</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.336648798293687</v>
+        <v>3.231791388020573</v>
       </c>
       <c r="B18" t="n">
-        <v>5.279076035417312</v>
+        <v>3.206793105960132</v>
       </c>
       <c r="C18" t="n">
-        <v>5.270893185727928</v>
+        <v>3.187060526859132</v>
       </c>
       <c r="D18" t="n">
-        <v>5.315538164116181</v>
+        <v>3.287651323495874</v>
       </c>
       <c r="E18" t="n">
-        <v>5.290229626893732</v>
+        <v>3.237004402210199</v>
       </c>
       <c r="F18" t="n">
-        <v>5.637955485457407</v>
+        <v>3.629297685677526</v>
       </c>
       <c r="G18" t="n">
-        <v>5.608667990989282</v>
+        <v>3.516726541951925</v>
       </c>
       <c r="H18" t="n">
-        <v>6.049151668213928</v>
+        <v>4.030988614305985</v>
       </c>
       <c r="I18" t="n">
-        <v>6.012734792750166</v>
+        <v>3.799589059335648</v>
       </c>
       <c r="J18" t="n">
-        <v>6.324737880617973</v>
+        <v>4.36901976511283</v>
       </c>
       <c r="K18" t="n">
-        <v>6.308270361460216</v>
+        <v>3.973236009346226</v>
       </c>
       <c r="L18" t="n">
-        <v>6.421959132335766</v>
+        <v>4.167849598319545</v>
       </c>
       <c r="M18" t="n">
-        <v>6.408747849639472</v>
+        <v>4.099855058272668</v>
       </c>
       <c r="N18" t="n">
-        <v>7.096764726434212</v>
+        <v>4.487693601472619</v>
       </c>
       <c r="O18" t="n">
-        <v>7.092753160239709</v>
+        <v>4.353764461837381</v>
       </c>
       <c r="P18" t="n">
-        <v>7.713254872209522</v>
+        <v>4.777590387029168</v>
       </c>
       <c r="Q18" t="n">
-        <v>7.712537475335323</v>
+        <v>4.747491451167747</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5.327541584728364</v>
+        <v>3.359204894723236</v>
       </c>
       <c r="B19" t="n">
-        <v>5.271589952450829</v>
+        <v>3.335282288812857</v>
       </c>
       <c r="C19" t="n">
-        <v>5.264714122669542</v>
+        <v>3.311537428150054</v>
       </c>
       <c r="D19" t="n">
-        <v>5.305406097873431</v>
+        <v>3.393319603570966</v>
       </c>
       <c r="E19" t="n">
-        <v>5.2831029078531</v>
+        <v>3.336276392590372</v>
       </c>
       <c r="F19" t="n">
-        <v>5.641759419161418</v>
+        <v>3.694781891504618</v>
       </c>
       <c r="G19" t="n">
-        <v>5.601193886820328</v>
+        <v>3.579143690051646</v>
       </c>
       <c r="H19" t="n">
-        <v>6.02237040438424</v>
+        <v>4.054459556846184</v>
       </c>
       <c r="I19" t="n">
-        <v>5.98452339359334</v>
+        <v>3.81174905608545</v>
       </c>
       <c r="J19" t="n">
-        <v>6.336079139922338</v>
+        <v>4.372087775046884</v>
       </c>
       <c r="K19" t="n">
-        <v>6.289901540939204</v>
+        <v>3.957292578040876</v>
       </c>
       <c r="L19" t="n">
-        <v>6.417368590927392</v>
+        <v>4.1974673524036</v>
       </c>
       <c r="M19" t="n">
-        <v>6.400348050617074</v>
+        <v>4.129165567000198</v>
       </c>
       <c r="N19" t="n">
-        <v>7.091989844641651</v>
+        <v>4.508880834983692</v>
       </c>
       <c r="O19" t="n">
-        <v>7.049265466790447</v>
+        <v>4.402542836207913</v>
       </c>
       <c r="P19" t="n">
-        <v>7.704166957817995</v>
+        <v>4.75007891412889</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.64124965477771</v>
+        <v>4.745029044684362</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5.335548079898579</v>
+        <v>3.408893261280912</v>
       </c>
       <c r="B20" t="n">
-        <v>5.279740858680136</v>
+        <v>3.38624470791298</v>
       </c>
       <c r="C20" t="n">
-        <v>5.272504999484246</v>
+        <v>3.362990868496607</v>
       </c>
       <c r="D20" t="n">
-        <v>5.315184789589094</v>
+        <v>3.451029041827742</v>
       </c>
       <c r="E20" t="n">
-        <v>5.292706576027099</v>
+        <v>3.394494626618335</v>
       </c>
       <c r="F20" t="n">
-        <v>5.635312164136145</v>
+        <v>3.757841779115664</v>
       </c>
       <c r="G20" t="n">
-        <v>5.601623792553847</v>
+        <v>3.6276313239815</v>
       </c>
       <c r="H20" t="n">
-        <v>6.032322788664064</v>
+        <v>4.122480123875741</v>
       </c>
       <c r="I20" t="n">
-        <v>5.99037037776469</v>
+        <v>3.800384469318552</v>
       </c>
       <c r="J20" t="n">
-        <v>6.288483384409595</v>
+        <v>4.441249403085435</v>
       </c>
       <c r="K20" t="n">
-        <v>6.307064495842359</v>
+        <v>3.921627041908045</v>
       </c>
       <c r="L20" t="n">
-        <v>6.40170564767029</v>
+        <v>4.251834862603717</v>
       </c>
       <c r="M20" t="n">
-        <v>6.383040019166076</v>
+        <v>4.183008411317738</v>
       </c>
       <c r="N20" t="n">
-        <v>7.058292821705581</v>
+        <v>4.515826547934958</v>
       </c>
       <c r="O20" t="n">
-        <v>7.045313794583587</v>
+        <v>4.428717728326864</v>
       </c>
       <c r="P20" t="n">
-        <v>7.592177845213971</v>
+        <v>4.738567687532742</v>
       </c>
       <c r="Q20" t="n">
-        <v>7.579207469445747</v>
+        <v>4.749088936580337</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.333000588957545</v>
+        <v>3.475214456782751</v>
       </c>
       <c r="B21" t="n">
-        <v>5.275214204191913</v>
+        <v>3.45448142585968</v>
       </c>
       <c r="C21" t="n">
-        <v>5.269972814784498</v>
+        <v>3.431741460650138</v>
       </c>
       <c r="D21" t="n">
-        <v>5.306786987032952</v>
+        <v>3.516200289058209</v>
       </c>
       <c r="E21" t="n">
-        <v>5.289077000376001</v>
+        <v>3.461475066547345</v>
       </c>
       <c r="F21" t="n">
-        <v>5.634840332611278</v>
+        <v>3.8368638247635</v>
       </c>
       <c r="G21" t="n">
-        <v>5.601934575800833</v>
+        <v>3.654712716863088</v>
       </c>
       <c r="H21" t="n">
-        <v>6.01019528767415</v>
+        <v>4.234159049938955</v>
       </c>
       <c r="I21" t="n">
-        <v>5.990758357706859</v>
+        <v>3.807372714168344</v>
       </c>
       <c r="J21" t="n">
-        <v>6.210796224016824</v>
+        <v>4.587104931430803</v>
       </c>
       <c r="K21" t="n">
-        <v>6.306416309798323</v>
+        <v>3.883845385122374</v>
       </c>
       <c r="L21" t="n">
-        <v>6.405453680319169</v>
+        <v>4.37124888095877</v>
       </c>
       <c r="M21" t="n">
-        <v>6.395289005127591</v>
+        <v>4.269658902108868</v>
       </c>
       <c r="N21" t="n">
-        <v>7.067916454542127</v>
+        <v>4.70841384108591</v>
       </c>
       <c r="O21" t="n">
-        <v>7.044100608589464</v>
+        <v>4.450615625426013</v>
       </c>
       <c r="P21" t="n">
-        <v>7.626678778561946</v>
+        <v>4.783568340587825</v>
       </c>
       <c r="Q21" t="n">
-        <v>7.61182906255927</v>
+        <v>4.783762590751248</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5.329505442034266</v>
+        <v>3.511113600955254</v>
       </c>
       <c r="B22" t="n">
-        <v>5.275024539897714</v>
+        <v>3.476504379436589</v>
       </c>
       <c r="C22" t="n">
-        <v>5.269564870179781</v>
+        <v>3.458410865440023</v>
       </c>
       <c r="D22" t="n">
-        <v>5.307316050590455</v>
+        <v>3.476989052638462</v>
       </c>
       <c r="E22" t="n">
-        <v>5.290010681094463</v>
+        <v>3.439723809277445</v>
       </c>
       <c r="F22" t="n">
-        <v>5.635979649353977</v>
+        <v>3.76840492525733</v>
       </c>
       <c r="G22" t="n">
-        <v>5.603429929025625</v>
+        <v>3.669441449842592</v>
       </c>
       <c r="H22" t="n">
-        <v>6.033111392834683</v>
+        <v>4.109663421916592</v>
       </c>
       <c r="I22" t="n">
-        <v>5.980678865075483</v>
+        <v>3.925097517866968</v>
       </c>
       <c r="J22" t="n">
-        <v>6.327289364491516</v>
+        <v>4.430565644097199</v>
       </c>
       <c r="K22" t="n">
-        <v>6.314650402121578</v>
+        <v>4.193237332913516</v>
       </c>
       <c r="L22" t="n">
-        <v>6.412929780954378</v>
+        <v>4.248891591745194</v>
       </c>
       <c r="M22" t="n">
-        <v>6.393717786185119</v>
+        <v>4.186310029291465</v>
       </c>
       <c r="N22" t="n">
-        <v>7.043630108042099</v>
+        <v>4.567920188575012</v>
       </c>
       <c r="O22" t="n">
-        <v>7.029769308324266</v>
+        <v>4.379326450254422</v>
       </c>
       <c r="P22" t="n">
-        <v>7.633178607198592</v>
+        <v>4.796255542438026</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.618895887612259</v>
+        <v>4.764759719371995</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5.334754151817949</v>
+        <v>3.550811097588013</v>
       </c>
       <c r="B23" t="n">
-        <v>5.277816265210578</v>
+        <v>3.508484875704494</v>
       </c>
       <c r="C23" t="n">
-        <v>5.269783150490299</v>
+        <v>3.492175162228246</v>
       </c>
       <c r="D23" t="n">
-        <v>5.305863954134515</v>
+        <v>3.478710959724355</v>
       </c>
       <c r="E23" t="n">
-        <v>5.283769062093428</v>
+        <v>3.444354072976803</v>
       </c>
       <c r="F23" t="n">
-        <v>5.62847093976994</v>
+        <v>3.729984655189296</v>
       </c>
       <c r="G23" t="n">
-        <v>5.590921402450995</v>
+        <v>3.654263910112959</v>
       </c>
       <c r="H23" t="n">
-        <v>6.047587769647723</v>
+        <v>4.096224928993154</v>
       </c>
       <c r="I23" t="n">
-        <v>5.975069460388446</v>
+        <v>3.938918480474923</v>
       </c>
       <c r="J23" t="n">
-        <v>6.358784950637371</v>
+        <v>4.409905298284298</v>
       </c>
       <c r="K23" t="n">
-        <v>6.296187747686595</v>
+        <v>4.216568301071248</v>
       </c>
       <c r="L23" t="n">
-        <v>6.406095876964439</v>
+        <v>4.238691236349919</v>
       </c>
       <c r="M23" t="n">
-        <v>6.390022327147616</v>
+        <v>4.194334909817298</v>
       </c>
       <c r="N23" t="n">
-        <v>7.041568423889715</v>
+        <v>4.489325048923586</v>
       </c>
       <c r="O23" t="n">
-        <v>7.028318542845829</v>
+        <v>4.370712788595992</v>
       </c>
       <c r="P23" t="n">
-        <v>7.628907500390975</v>
+        <v>4.800534441871194</v>
       </c>
       <c r="Q23" t="n">
-        <v>7.623684744668603</v>
+        <v>4.751997927998257</v>
       </c>
     </row>
   </sheetData>
